--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500A91ED-3AD0-4BEA-9EA0-97D57F96BDA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB0C4D-2EFC-4CA9-BA80-141B07600325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,9 +12,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
-    <sheet name="x2" sheetId="4" r:id="rId5"/>
-    <sheet name="x3" sheetId="5" r:id="rId6"/>
-    <sheet name="x4" sheetId="6" r:id="rId7"/>
+    <sheet name="ablation_init" sheetId="8" r:id="rId5"/>
+    <sheet name="x2" sheetId="4" r:id="rId6"/>
+    <sheet name="x3" sheetId="5" r:id="rId7"/>
+    <sheet name="x4" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="577">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1791,6 +1792,26 @@
   </si>
   <si>
     <t>gpus=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaiming_normal</t>
+  </si>
+  <si>
+    <t>kaiming_uniform</t>
+  </si>
+  <si>
+    <t>xavier_normal</t>
+  </si>
+  <si>
+    <t>xavier_uniform</t>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averaged with seed 233,234,235,236</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1819,8 +1840,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1836,6 +1869,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1881,8 +1920,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2381,7 +2429,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2410,7 +2458,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>435</v>
       </c>
@@ -2437,7 +2485,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2464,7 +2512,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
@@ -2491,7 +2539,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2518,7 +2566,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
@@ -2545,7 +2593,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2620,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
@@ -2599,7 +2647,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2626,13 +2674,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B19" t="s">
@@ -2661,7 +2709,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2688,7 +2736,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -2715,7 +2763,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -2742,7 +2790,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>69</v>
       </c>
@@ -2769,7 +2817,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -2796,7 +2844,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>53</v>
       </c>
@@ -2823,7 +2871,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -2850,7 +2898,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -2877,13 +2925,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2912,7 +2960,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="5"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="3" t="s">
         <v>99</v>
       </c>
@@ -2939,7 +2987,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="5"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="3" t="s">
         <v>85</v>
       </c>
@@ -2966,7 +3014,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -2993,7 +3041,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -3020,7 +3068,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
@@ -3047,7 +3095,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="3" t="s">
         <v>53</v>
       </c>
@@ -3074,7 +3122,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
@@ -3101,7 +3149,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -3128,7 +3176,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="3" t="s">
         <v>210</v>
       </c>
@@ -3201,7 +3249,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3227,7 +3275,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -3251,7 +3299,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="3" t="s">
         <v>99</v>
       </c>
@@ -3275,7 +3323,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>230</v>
       </c>
@@ -3299,7 +3347,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
@@ -3323,7 +3371,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>242</v>
       </c>
@@ -3347,7 +3395,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
@@ -3371,7 +3419,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
@@ -3395,7 +3443,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -3419,7 +3467,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3" t="s">
         <v>267</v>
       </c>
@@ -3443,7 +3491,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>274</v>
       </c>
@@ -3467,7 +3515,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -3491,7 +3539,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3563,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3541,7 +3589,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3" t="s">
         <v>217</v>
       </c>
@@ -3565,7 +3613,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
@@ -3589,7 +3637,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3" t="s">
         <v>230</v>
       </c>
@@ -3613,7 +3661,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -3637,7 +3685,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3" t="s">
         <v>242</v>
       </c>
@@ -3661,7 +3709,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
@@ -3685,7 +3733,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
@@ -3709,7 +3757,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
@@ -3733,7 +3781,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="3" t="s">
         <v>267</v>
       </c>
@@ -3757,7 +3805,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="3" t="s">
         <v>274</v>
       </c>
@@ -3781,7 +3829,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
@@ -3805,7 +3853,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3829,7 +3877,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3855,7 +3903,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="3" t="s">
         <v>217</v>
       </c>
@@ -3879,7 +3927,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
@@ -3903,7 +3951,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>230</v>
       </c>
@@ -3927,7 +3975,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
@@ -3951,7 +3999,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="3" t="s">
         <v>242</v>
       </c>
@@ -3975,7 +4023,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
@@ -3999,7 +4047,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
@@ -4023,7 +4071,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
@@ -4047,7 +4095,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="3" t="s">
         <v>267</v>
       </c>
@@ -4071,7 +4119,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3" t="s">
         <v>274</v>
       </c>
@@ -4095,7 +4143,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
@@ -4119,7 +4167,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -4155,10 +4203,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4283,6 +4331,156 @@
         <v>570</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6">
+        <v>34.372</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>29.071000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>28.093</v>
+      </c>
+      <c r="H5" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6" s="6">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30.321999999999999</v>
+      </c>
+      <c r="F6" s="6">
+        <v>29.068999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>28.087</v>
+      </c>
+      <c r="H6" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>34.414000000000001</v>
+      </c>
+      <c r="E7" s="6">
+        <v>30.332999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <v>29.09</v>
+      </c>
+      <c r="G7" s="6">
+        <v>28.140999999999998</v>
+      </c>
+      <c r="H7" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30.347999999999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>29.09</v>
+      </c>
+      <c r="G8" s="6">
+        <v>28.16</v>
+      </c>
+      <c r="H8" s="6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>34.381</v>
+      </c>
+      <c r="E9" s="6">
+        <v>30.337</v>
+      </c>
+      <c r="F9" s="6">
+        <v>29.093</v>
+      </c>
+      <c r="G9" s="6">
+        <v>28.161000000000001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4291,10 +4489,143 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210ED35-9BF5-4DB7-A1FB-312D2FE75AD2}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="8">
+        <v>31.5855</v>
+      </c>
+      <c r="D2" s="8">
+        <v>28.208300000000001</v>
+      </c>
+      <c r="E2" s="8">
+        <v>27.305499999999999</v>
+      </c>
+      <c r="F2" s="8">
+        <v>25.289300000000001</v>
+      </c>
+      <c r="G2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" s="8">
+        <v>31.558700000000002</v>
+      </c>
+      <c r="D3" s="8">
+        <v>28.203299999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <v>27.302499999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <v>25.28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" s="8">
+        <v>31.578499999999998</v>
+      </c>
+      <c r="D4" s="8">
+        <v>28.220300000000002</v>
+      </c>
+      <c r="E4" s="8">
+        <v>27.3065</v>
+      </c>
+      <c r="F4" s="8">
+        <v>25.2913</v>
+      </c>
+      <c r="G4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C5" s="8">
+        <v>31.552700000000002</v>
+      </c>
+      <c r="D5" s="8">
+        <v>28.212299999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>27.303999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>25.2835</v>
+      </c>
+      <c r="G5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -4926,12 +5257,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5460,12 +5791,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB0C4D-2EFC-4CA9-BA80-141B07600325}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0690DA-5CB9-4D59-A56D-51BCEB2AFFE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,9 +13,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
     <sheet name="ablation_init" sheetId="8" r:id="rId5"/>
-    <sheet name="x2" sheetId="4" r:id="rId6"/>
-    <sheet name="x3" sheetId="5" r:id="rId7"/>
-    <sheet name="x4" sheetId="6" r:id="rId8"/>
+    <sheet name="ablation_repvgg" sheetId="9" r:id="rId6"/>
+    <sheet name="ablation_distill" sheetId="10" r:id="rId7"/>
+    <sheet name="x2" sheetId="4" r:id="rId8"/>
+    <sheet name="x3" sheetId="5" r:id="rId9"/>
+    <sheet name="x4" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="582">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1813,6 +1815,23 @@
   <si>
     <t>averaged with seed 233,234,235,236</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAKD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed=233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed=234</t>
+  </si>
+  <si>
+    <t>seed=235</t>
+  </si>
+  <si>
+    <t>seed=236</t>
   </si>
 </sst>
 </file>
@@ -1926,11 +1945,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2379,6 +2398,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="17.875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C13" t="s">
+        <v>524</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J21">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A84749-CD26-48D4-9868-966E4A125BA6}">
   <dimension ref="A1:J45"/>
@@ -2429,7 +3017,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -2458,7 +3046,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>435</v>
       </c>
@@ -2485,7 +3073,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
@@ -2512,7 +3100,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
@@ -2539,7 +3127,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -2566,7 +3154,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
@@ -2593,7 +3181,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
@@ -2620,7 +3208,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
@@ -2647,7 +3235,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -2674,13 +3262,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B19" t="s">
@@ -2709,7 +3297,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -2736,7 +3324,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -2763,7 +3351,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -2790,7 +3378,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" t="s">
         <v>69</v>
       </c>
@@ -2817,7 +3405,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -2844,7 +3432,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" t="s">
         <v>53</v>
       </c>
@@ -2871,7 +3459,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -2898,7 +3486,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -2925,13 +3513,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2960,7 +3548,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3" t="s">
         <v>99</v>
       </c>
@@ -2987,7 +3575,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3" t="s">
         <v>85</v>
       </c>
@@ -3014,7 +3602,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -3041,7 +3629,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -3068,7 +3656,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
@@ -3095,7 +3683,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3" t="s">
         <v>53</v>
       </c>
@@ -3122,7 +3710,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
@@ -3149,7 +3737,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -3176,7 +3764,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
         <v>210</v>
       </c>
@@ -3249,7 +3837,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3275,7 +3863,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -3299,7 +3887,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>99</v>
       </c>
@@ -3323,7 +3911,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
         <v>230</v>
       </c>
@@ -3347,7 +3935,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
@@ -3371,7 +3959,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
         <v>242</v>
       </c>
@@ -3395,7 +3983,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
@@ -3419,7 +4007,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
@@ -3443,7 +4031,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -3467,7 +4055,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3" t="s">
         <v>267</v>
       </c>
@@ -3491,7 +4079,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="s">
         <v>274</v>
       </c>
@@ -3515,7 +4103,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -3539,7 +4127,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -3563,7 +4151,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3589,7 +4177,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3" t="s">
         <v>217</v>
       </c>
@@ -3613,7 +4201,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
@@ -3637,7 +4225,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
         <v>230</v>
       </c>
@@ -3661,7 +4249,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -3685,7 +4273,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3" t="s">
         <v>242</v>
       </c>
@@ -3709,7 +4297,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
@@ -3733,7 +4321,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
@@ -3757,7 +4345,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
@@ -3781,7 +4369,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
         <v>267</v>
       </c>
@@ -3805,7 +4393,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3" t="s">
         <v>274</v>
       </c>
@@ -3829,7 +4417,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
@@ -3853,7 +4441,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3877,7 +4465,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -3903,7 +4491,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3" t="s">
         <v>217</v>
       </c>
@@ -3927,7 +4515,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
@@ -3951,7 +4539,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="3" t="s">
         <v>230</v>
       </c>
@@ -3975,7 +4563,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
@@ -3999,7 +4587,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3" t="s">
         <v>242</v>
       </c>
@@ -4023,7 +4611,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
@@ -4047,7 +4635,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
@@ -4071,7 +4659,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
@@ -4095,7 +4683,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3" t="s">
         <v>267</v>
       </c>
@@ -4119,7 +4707,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3" t="s">
         <v>274</v>
       </c>
@@ -4143,7 +4731,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
@@ -4167,7 +4755,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -4203,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4461,10 +5049,109 @@
         <v>236</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="E10" s="6">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="G10" s="6">
+        <v>25.984000000000002</v>
+      </c>
+      <c r="H10" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>64</v>
+      </c>
+      <c r="D11" s="6">
+        <v>32.100999999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>28.564</v>
+      </c>
+      <c r="F11" s="6">
+        <v>27.55</v>
+      </c>
+      <c r="G11" s="6">
+        <v>25.99</v>
+      </c>
+      <c r="H11" s="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12" s="6">
+        <v>32.088000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>28.567</v>
+      </c>
+      <c r="F12" s="6">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="G12" s="6">
+        <v>25.98</v>
+      </c>
+      <c r="H12" s="6">
+        <v>235</v>
+      </c>
+    </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13" s="6">
+        <v>32.11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>28.564</v>
+      </c>
+      <c r="F13" s="6">
+        <v>27.55</v>
+      </c>
+      <c r="G13" s="6">
+        <v>26.007000000000001</v>
+      </c>
+      <c r="H13" s="6">
+        <v>236</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D14" s="5"/>
@@ -4480,6 +5167,30 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4490,10 +5201,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210ED35-9BF5-4DB7-A1FB-312D2FE75AD2}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4526,22 +5237,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>31.5855</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>28.208300000000001</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>27.305499999999999</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>25.289300000000001</v>
       </c>
       <c r="G2" t="s">
@@ -4549,20 +5260,20 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>31.558700000000002</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>28.203299999999999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>27.302499999999998</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>25.28</v>
       </c>
       <c r="G3" t="s">
@@ -4570,20 +5281,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>31.578499999999998</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>28.220300000000002</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>27.3065</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>25.2913</v>
       </c>
       <c r="G4" t="s">
@@ -4591,29 +5302,116 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>31.552700000000002</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>28.212299999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>27.303999999999998</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>25.2835</v>
       </c>
       <c r="G5" t="s">
         <v>576</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C6" s="7">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29.9785</v>
+      </c>
+      <c r="E6" s="7">
+        <v>28.831</v>
+      </c>
+      <c r="F6" s="7">
+        <v>27.304300000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C7" s="7">
+        <v>33.861499999999999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>29.971800000000002</v>
+      </c>
+      <c r="E7" s="7">
+        <v>28.8278</v>
+      </c>
+      <c r="F7" s="7">
+        <v>27.288499999999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" s="7">
+        <v>33.884</v>
+      </c>
+      <c r="D8" s="7">
+        <v>29.991800000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>28.8352</v>
+      </c>
+      <c r="F8" s="7">
+        <v>27.3187</v>
+      </c>
+      <c r="G8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" s="7">
+        <v>33.859299999999998</v>
+      </c>
+      <c r="D9" s="7">
+        <v>29.984500000000001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>28.828499999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>27.2943</v>
+      </c>
+      <c r="G9" t="s">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4622,6 +5420,197 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987EE552-3FB2-4803-9EF9-132E2CA87291}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="D2" s="6">
+        <v>28.224</v>
+      </c>
+      <c r="E2" s="6">
+        <v>27.308</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25.300999999999998</v>
+      </c>
+      <c r="G2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="6">
+        <v>31.59</v>
+      </c>
+      <c r="D3" s="6">
+        <v>28.215</v>
+      </c>
+      <c r="E3" s="6">
+        <v>27.305</v>
+      </c>
+      <c r="F3" s="6">
+        <v>25.297000000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="6">
+        <v>31.602</v>
+      </c>
+      <c r="D4" s="6">
+        <v>28.225999999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>27.321000000000002</v>
+      </c>
+      <c r="F4" s="6">
+        <v>25.323</v>
+      </c>
+      <c r="G4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C5" s="6">
+        <v>31.577000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="E5" s="6">
+        <v>27.297999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25.29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -5257,7 +6246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -5789,573 +6778,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="9" width="17.875" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="C13" t="s">
-        <v>524</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:J21">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0690DA-5CB9-4D59-A56D-51BCEB2AFFE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264DD6FB-47DF-4623-B5F8-010814701125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="ablation_init" sheetId="8" r:id="rId5"/>
     <sheet name="ablation_repvgg" sheetId="9" r:id="rId6"/>
     <sheet name="ablation_distill" sheetId="10" r:id="rId7"/>
-    <sheet name="x2" sheetId="4" r:id="rId8"/>
-    <sheet name="x3" sheetId="5" r:id="rId9"/>
-    <sheet name="x4" sheetId="6" r:id="rId10"/>
+    <sheet name="Ablation" sheetId="11" r:id="rId8"/>
+    <sheet name="x2" sheetId="4" r:id="rId9"/>
+    <sheet name="x3" sheetId="5" r:id="rId10"/>
+    <sheet name="x4" sheetId="6" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="593">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1832,13 +1833,48 @@
   </si>
   <si>
     <t>seed=236</t>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>init_stu</t>
+  </si>
+  <si>
+    <t>dist_coe</t>
+  </si>
+  <si>
+    <t>init_dist</t>
+  </si>
+  <si>
+    <t>decompose_adjust</t>
+  </si>
+  <si>
+    <t>Set5</t>
+  </si>
+  <si>
+    <t>Set14</t>
+  </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>Urban100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1866,6 +1902,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
@@ -1925,7 +1968,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1949,6 +1992,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2399,6 +2445,540 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J22">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E89D0B4-1B01-4C9B-B949-158A53C19AFB}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -5201,10 +5781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6210ED35-9BF5-4DB7-A1FB-312D2FE75AD2}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5408,10 +5988,97 @@
         <v>576</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C10" s="7">
+        <v>37.588000000000001</v>
+      </c>
+      <c r="D10" s="7">
+        <v>33.199199999999998</v>
+      </c>
+      <c r="E10" s="7">
+        <v>31.921299999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>31.092500000000001</v>
+      </c>
+      <c r="G10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C11" s="7">
+        <v>37.585999999999999</v>
+      </c>
+      <c r="D11" s="7">
+        <v>33.200499999999998</v>
+      </c>
+      <c r="E11" s="7">
+        <v>31.918299999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>31.096800000000002</v>
+      </c>
+      <c r="G11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C12" s="7">
+        <v>37.593499999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>33.191499999999998</v>
+      </c>
+      <c r="E12" s="7">
+        <v>31.9175</v>
+      </c>
+      <c r="F12" s="7">
+        <v>31.070499999999999</v>
+      </c>
+      <c r="G12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C13" s="7">
+        <v>37.587000000000003</v>
+      </c>
+      <c r="D13" s="7">
+        <v>33.1843</v>
+      </c>
+      <c r="E13" s="7">
+        <v>31.9068</v>
+      </c>
+      <c r="F13" s="7">
+        <v>31.049499999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>576</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5460,15 +6127,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987EE552-3FB2-4803-9EF9-132E2CA87291}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>209</v>
       </c>
@@ -5490,8 +6157,11 @@
       <c r="G1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>4</v>
       </c>
@@ -5513,8 +6183,11 @@
       <c r="G2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>577</v>
@@ -5534,8 +6207,11 @@
       <c r="G3" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" t="s">
         <v>577</v>
@@ -5555,8 +6231,11 @@
       <c r="G4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
         <v>577</v>
@@ -5576,26 +6255,29 @@
       <c r="G5" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5607,10 +6289,1117 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I2" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J2" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H3" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J3" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7">
+        <v>31.579000000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>28.222999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>27.312000000000001</v>
+      </c>
+      <c r="I5" s="7">
+        <v>25.306000000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>64</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="G6" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="H6" s="7">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>25.658000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>31.809000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>28.379000000000001</v>
+      </c>
+      <c r="H7" s="7">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>25.614999999999998</v>
+      </c>
+      <c r="J7" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>31.853000000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>28.4</v>
+      </c>
+      <c r="H8" s="7">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>25.658000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>64</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>31.809000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>28.379000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>27.422000000000001</v>
+      </c>
+      <c r="I9" s="7">
+        <v>25.614999999999998</v>
+      </c>
+      <c r="J9" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>31.984000000000002</v>
+      </c>
+      <c r="G10" s="7">
+        <v>28.513999999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>27.516999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>25.917000000000002</v>
+      </c>
+      <c r="J10" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="G11" s="7">
+        <v>28.538</v>
+      </c>
+      <c r="H11" s="7">
+        <v>27.533000000000001</v>
+      </c>
+      <c r="I11" s="7">
+        <v>25.965</v>
+      </c>
+      <c r="J11" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>31.984000000000002</v>
+      </c>
+      <c r="G12" s="7">
+        <v>28.513999999999999</v>
+      </c>
+      <c r="H12" s="7">
+        <v>27.516999999999999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>25.917000000000002</v>
+      </c>
+      <c r="J12" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>32.116999999999997</v>
+      </c>
+      <c r="G13" s="7">
+        <v>28.538</v>
+      </c>
+      <c r="H13" s="7">
+        <v>27.533000000000001</v>
+      </c>
+      <c r="I13" s="7">
+        <v>25.965</v>
+      </c>
+      <c r="J13" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>32.048999999999999</v>
+      </c>
+      <c r="G14" s="7">
+        <v>28.489000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I14" s="7">
+        <v>25.98</v>
+      </c>
+      <c r="J14" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>32.085000000000001</v>
+      </c>
+      <c r="G15" s="7">
+        <v>28.553000000000001</v>
+      </c>
+      <c r="H15" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25.992000000000001</v>
+      </c>
+      <c r="J15" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>32.093000000000004</v>
+      </c>
+      <c r="G16" s="7">
+        <v>28.559000000000001</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I16" s="7">
+        <v>25.962</v>
+      </c>
+      <c r="J16" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>64</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>32.085000000000001</v>
+      </c>
+      <c r="G17" s="7">
+        <v>28.553000000000001</v>
+      </c>
+      <c r="H17" s="7">
+        <v>27.552</v>
+      </c>
+      <c r="I17" s="7">
+        <v>25.992000000000001</v>
+      </c>
+      <c r="J17" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>31.619</v>
+      </c>
+      <c r="G18" s="7">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="J18" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>64</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>32.063000000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <v>28.52</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27.518999999999998</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25.9</v>
+      </c>
+      <c r="J19" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>64</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>31.625</v>
+      </c>
+      <c r="G20" s="7">
+        <v>28.25</v>
+      </c>
+      <c r="H20" s="7">
+        <v>27.323</v>
+      </c>
+      <c r="I20" s="7">
+        <v>25.343</v>
+      </c>
+      <c r="J20" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>32.023000000000003</v>
+      </c>
+      <c r="G21" s="7">
+        <v>28.513999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>27.523</v>
+      </c>
+      <c r="I21" s="7">
+        <v>25.907</v>
+      </c>
+      <c r="J21" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>64</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>31.844999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>27.437000000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <v>25.675999999999998</v>
+      </c>
+      <c r="J22" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>64</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>32.119</v>
+      </c>
+      <c r="G23" s="7">
+        <v>28.542000000000002</v>
+      </c>
+      <c r="H23" s="7">
+        <v>27.544</v>
+      </c>
+      <c r="I23" s="7">
+        <v>25.974</v>
+      </c>
+      <c r="J23" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>64</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>31.824000000000002</v>
+      </c>
+      <c r="G24" s="7">
+        <v>28.401</v>
+      </c>
+      <c r="H24" s="7">
+        <v>27.443000000000001</v>
+      </c>
+      <c r="I24" s="7">
+        <v>25.675000000000001</v>
+      </c>
+      <c r="J24" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>32.112000000000002</v>
+      </c>
+      <c r="G25" s="7">
+        <v>28.56</v>
+      </c>
+      <c r="H25" s="7">
+        <v>27.545999999999999</v>
+      </c>
+      <c r="I25" s="7">
+        <v>25.952999999999999</v>
+      </c>
+      <c r="J25" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>64</v>
+      </c>
+      <c r="B26" s="7">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
+        <v>3</v>
+      </c>
+      <c r="F26" s="7">
+        <v>31.619</v>
+      </c>
+      <c r="G26" s="7">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="H26" s="7">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="I26" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="J26" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>64</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>32.103999999999999</v>
+      </c>
+      <c r="G27" s="7">
+        <v>28.524000000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>27.53</v>
+      </c>
+      <c r="I27" s="7">
+        <v>25.954999999999998</v>
+      </c>
+      <c r="J27" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>64</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
+        <v>31.619</v>
+      </c>
+      <c r="G28" s="7">
+        <v>28.248000000000001</v>
+      </c>
+      <c r="H28" s="7">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="I28" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="J28" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>64</v>
+      </c>
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7">
+        <v>32.043999999999997</v>
+      </c>
+      <c r="G29" s="7">
+        <v>28.547000000000001</v>
+      </c>
+      <c r="H29" s="7">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="I29" s="7">
+        <v>25.968</v>
+      </c>
+      <c r="J29" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>64</v>
+      </c>
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>3</v>
+      </c>
+      <c r="F30" s="7">
+        <v>31.84</v>
+      </c>
+      <c r="G30" s="7">
+        <v>28.366</v>
+      </c>
+      <c r="H30" s="7">
+        <v>27.419</v>
+      </c>
+      <c r="I30" s="7">
+        <v>25.603999999999999</v>
+      </c>
+      <c r="J30" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>64</v>
+      </c>
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>32.113999999999997</v>
+      </c>
+      <c r="G31" s="7">
+        <v>28.556000000000001</v>
+      </c>
+      <c r="H31" s="7">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="I31" s="7">
+        <v>25.992000000000001</v>
+      </c>
+      <c r="J31" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>64</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
+        <v>31.84</v>
+      </c>
+      <c r="G32" s="7">
+        <v>28.366</v>
+      </c>
+      <c r="H32" s="7">
+        <v>27.419</v>
+      </c>
+      <c r="I32" s="7">
+        <v>25.603999999999999</v>
+      </c>
+      <c r="J32" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>64</v>
+      </c>
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7">
+        <v>32.11</v>
+      </c>
+      <c r="G33" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H33" s="7">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="I33" s="7">
+        <v>25.983000000000001</v>
+      </c>
+      <c r="J33" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7E9B-E9C4-4E46-9F76-B4CCDCFCCCE5}">
   <dimension ref="A1:J24"/>
   <sheetViews>
@@ -6244,538 +8033,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E4D1BB-A6AD-4902-AB06-A0EF0E8DC8B7}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" t="s">
-        <v>141</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" t="s">
-        <v>147</v>
-      </c>
-      <c r="I17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:J22">
-    <sortCondition ref="A2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264DD6FB-47DF-4623-B5F8-010814701125}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55804EF2-AE5F-4EB4-B5B0-493BF7798A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1991,10 +1991,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2983,11 +2983,12 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
@@ -3551,7 +3552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A84749-CD26-48D4-9868-966E4A125BA6}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:J44"/>
     </sheetView>
   </sheetViews>
@@ -3597,7 +3598,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -3626,7 +3627,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>435</v>
       </c>
@@ -3653,7 +3654,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
@@ -3680,7 +3681,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
@@ -3707,7 +3708,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3734,7 +3735,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
@@ -3761,7 +3762,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
@@ -3788,7 +3789,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
@@ -3815,7 +3816,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3842,13 +3843,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B19" t="s">
@@ -3877,7 +3878,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -3904,7 +3905,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -3931,7 +3932,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -3958,7 +3959,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="B23" t="s">
         <v>69</v>
       </c>
@@ -3985,7 +3986,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -4012,7 +4013,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" t="s">
         <v>53</v>
       </c>
@@ -4039,7 +4040,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -4066,7 +4067,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -4093,13 +4094,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4128,7 +4129,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3" t="s">
         <v>99</v>
       </c>
@@ -4155,7 +4156,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="3" t="s">
         <v>85</v>
       </c>
@@ -4182,7 +4183,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -4209,7 +4210,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -4236,7 +4237,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
@@ -4263,7 +4264,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="3" t="s">
         <v>53</v>
       </c>
@@ -4290,7 +4291,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
@@ -4317,7 +4318,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -4344,7 +4345,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="3" t="s">
         <v>210</v>
       </c>
@@ -4417,7 +4418,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4443,7 +4444,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -4467,7 +4468,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
         <v>99</v>
       </c>
@@ -4491,7 +4492,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>230</v>
       </c>
@@ -4515,7 +4516,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
@@ -4539,7 +4540,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>242</v>
       </c>
@@ -4563,7 +4564,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
@@ -4587,7 +4588,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
@@ -4611,7 +4612,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -4635,7 +4636,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>267</v>
       </c>
@@ -4659,7 +4660,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
         <v>274</v>
       </c>
@@ -4683,7 +4684,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4707,7 +4708,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -4731,7 +4732,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4757,7 +4758,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
         <v>217</v>
       </c>
@@ -4781,7 +4782,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
@@ -4805,7 +4806,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
         <v>230</v>
       </c>
@@ -4829,7 +4830,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -4853,7 +4854,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3" t="s">
         <v>242</v>
       </c>
@@ -4877,7 +4878,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
@@ -4901,7 +4902,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
@@ -4925,7 +4926,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
@@ -4949,7 +4950,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="B32" s="3" t="s">
         <v>267</v>
       </c>
@@ -4973,7 +4974,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="3" t="s">
         <v>274</v>
       </c>
@@ -4997,7 +4998,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
@@ -5021,7 +5022,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -5045,7 +5046,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="9" t="s">
         <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -5071,7 +5072,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="3" t="s">
         <v>217</v>
       </c>
@@ -5095,7 +5096,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
@@ -5119,7 +5120,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="3" t="s">
         <v>230</v>
       </c>
@@ -5143,7 +5144,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
@@ -5167,7 +5168,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="A52" s="9"/>
       <c r="B52" s="3" t="s">
         <v>242</v>
       </c>
@@ -5191,7 +5192,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
@@ -5215,7 +5216,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
@@ -5239,7 +5240,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
@@ -5263,7 +5264,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
       <c r="B56" s="3" t="s">
         <v>267</v>
       </c>
@@ -5287,7 +5288,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="9"/>
       <c r="B57" s="3" t="s">
         <v>274</v>
       </c>
@@ -5311,7 +5312,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
@@ -5335,7 +5336,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -5817,7 +5818,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -5840,7 +5841,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>572</v>
       </c>
@@ -5861,7 +5862,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7" t="s">
         <v>573</v>
       </c>
@@ -5882,7 +5883,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="7" t="s">
         <v>574</v>
       </c>
@@ -5903,7 +5904,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -5926,7 +5927,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
         <v>572</v>
       </c>
@@ -5947,7 +5948,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7" t="s">
         <v>573</v>
       </c>
@@ -5968,7 +5969,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
         <v>574</v>
       </c>
@@ -5989,7 +5990,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -6012,7 +6013,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
         <v>572</v>
       </c>
@@ -6033,7 +6034,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7" t="s">
         <v>573</v>
       </c>
@@ -6054,7 +6055,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7" t="s">
         <v>574</v>
       </c>
@@ -6162,7 +6163,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="9">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -6188,7 +6189,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" t="s">
         <v>577</v>
       </c>
@@ -6212,7 +6213,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" t="s">
         <v>577</v>
       </c>
@@ -6236,7 +6237,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" t="s">
         <v>577</v>
       </c>
@@ -6295,43 +6296,43 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7359,38 +7360,517 @@
         <v>236</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>75</v>
+      </c>
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>31.675000000000001</v>
+      </c>
+      <c r="G34" s="7">
+        <v>28.306000000000001</v>
+      </c>
+      <c r="H34" s="7">
+        <v>27.364999999999998</v>
+      </c>
+      <c r="I34" s="7">
+        <v>25.446999999999999</v>
+      </c>
+      <c r="J34" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>75</v>
+      </c>
+      <c r="B35" s="7">
+        <v>0</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>31.702999999999999</v>
+      </c>
+      <c r="G35" s="7">
+        <v>28.312999999999999</v>
+      </c>
+      <c r="H35" s="7">
+        <v>27.36</v>
+      </c>
+      <c r="I35" s="7">
+        <v>25.44</v>
+      </c>
+      <c r="J35" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>75</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>31.684000000000001</v>
+      </c>
+      <c r="G36" s="7">
+        <v>28.298999999999999</v>
+      </c>
+      <c r="H36" s="7">
+        <v>27.36</v>
+      </c>
+      <c r="I36" s="7">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="J36" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>75</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7">
+        <v>31.651</v>
+      </c>
+      <c r="G37" s="7">
+        <v>28.312999999999999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>27.364999999999998</v>
+      </c>
+      <c r="I37" s="7">
+        <v>25.446999999999999</v>
+      </c>
+      <c r="J37" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>75</v>
+      </c>
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>31.940999999999999</v>
+      </c>
+      <c r="G38" s="7">
+        <v>28.451000000000001</v>
+      </c>
+      <c r="H38" s="7">
+        <v>27.475000000000001</v>
+      </c>
+      <c r="I38" s="7">
+        <v>25.754999999999999</v>
+      </c>
+      <c r="J38" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>75</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="7">
+        <v>3</v>
+      </c>
+      <c r="F39" s="7">
+        <v>31.908999999999999</v>
+      </c>
+      <c r="G39" s="7">
+        <v>28.440999999999999</v>
+      </c>
+      <c r="H39" s="7">
+        <v>27.452000000000002</v>
+      </c>
+      <c r="I39" s="7">
+        <v>25.722000000000001</v>
+      </c>
+      <c r="J39" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>75</v>
+      </c>
+      <c r="B40" s="7">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>31.904</v>
+      </c>
+      <c r="G40" s="7">
+        <v>28.423999999999999</v>
+      </c>
+      <c r="H40" s="7">
+        <v>27.46</v>
+      </c>
+      <c r="I40" s="7">
+        <v>25.744</v>
+      </c>
+      <c r="J40" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>75</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3</v>
+      </c>
+      <c r="F41" s="7">
+        <v>31.844999999999999</v>
+      </c>
+      <c r="G41" s="7">
+        <v>28.422000000000001</v>
+      </c>
+      <c r="H41" s="7">
+        <v>27.463000000000001</v>
+      </c>
+      <c r="I41" s="7">
+        <v>25.736000000000001</v>
+      </c>
+      <c r="J41" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>75</v>
+      </c>
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>32.064</v>
+      </c>
+      <c r="G42" s="7">
+        <v>28.526</v>
+      </c>
+      <c r="H42" s="7">
+        <v>27.538</v>
+      </c>
+      <c r="I42" s="7">
+        <v>25.95</v>
+      </c>
+      <c r="J42" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>75</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="7">
+        <v>3</v>
+      </c>
+      <c r="F43" s="7">
+        <v>32.076000000000001</v>
+      </c>
+      <c r="G43" s="7">
+        <v>28.552</v>
+      </c>
+      <c r="H43" s="7">
+        <v>27.547999999999998</v>
+      </c>
+      <c r="I43" s="7">
+        <v>26.021999999999998</v>
+      </c>
+      <c r="J43" s="7">
+        <v>233</v>
+      </c>
+    </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
+      <c r="A44" s="7">
+        <v>75</v>
+      </c>
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>32.067</v>
+      </c>
+      <c r="G44" s="7">
+        <v>28.542000000000002</v>
+      </c>
+      <c r="H44" s="7">
+        <v>27.530999999999999</v>
+      </c>
+      <c r="I44" s="7">
+        <v>25.962</v>
+      </c>
+      <c r="J44" s="7">
+        <v>233</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="A45" s="7">
+        <v>75</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>3</v>
+      </c>
+      <c r="F45" s="7">
+        <v>32.125</v>
+      </c>
+      <c r="G45" s="7">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H45" s="7">
+        <v>27.542999999999999</v>
+      </c>
+      <c r="I45" s="7">
+        <v>26.033999999999999</v>
+      </c>
+      <c r="J45" s="7">
+        <v>233</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="A46" s="7">
+        <v>75</v>
+      </c>
+      <c r="B46" s="7">
+        <v>1</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>32.088000000000001</v>
+      </c>
+      <c r="G46" s="7">
+        <v>28.562999999999999</v>
+      </c>
+      <c r="H46" s="7">
+        <v>27.562000000000001</v>
+      </c>
+      <c r="I46" s="7">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="J46" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>75</v>
+      </c>
+      <c r="B47" s="7">
+        <v>1</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+      <c r="F47" s="7">
+        <v>32.093000000000004</v>
+      </c>
+      <c r="G47" s="7">
+        <v>28.577999999999999</v>
+      </c>
+      <c r="H47" s="7">
+        <v>27.567</v>
+      </c>
+      <c r="I47" s="7">
+        <v>26.050999999999998</v>
+      </c>
+      <c r="J47" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>75</v>
+      </c>
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>32.125999999999998</v>
+      </c>
+      <c r="G48" s="7">
+        <v>28.594999999999999</v>
+      </c>
+      <c r="H48" s="7">
+        <v>27.562999999999999</v>
+      </c>
+      <c r="I48" s="7">
+        <v>26.036000000000001</v>
+      </c>
+      <c r="J48" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>75</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+      <c r="E49" s="7">
+        <v>3</v>
+      </c>
+      <c r="F49" s="7">
+        <v>32.15</v>
+      </c>
+      <c r="G49" s="7">
+        <v>28.556999999999999</v>
+      </c>
+      <c r="H49" s="7">
+        <v>27.571999999999999</v>
+      </c>
+      <c r="I49" s="7">
+        <v>26.03</v>
+      </c>
+      <c r="J49" s="7">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7404,7 +7884,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55804EF2-AE5F-4EB4-B5B0-493BF7798A01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938AD913-F721-4883-B91D-F0A456B4DEAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="601">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1868,6 +1868,38 @@
   </si>
   <si>
     <t>Urban100</t>
+  </si>
+  <si>
+    <t>Plain-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repvgg_no_bn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRKD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed=236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed=235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1909,10 +1941,12 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1968,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1991,10 +2025,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5372,10 +5409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5384,130 +5421,162 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>64</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>64</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>37.927</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>33.557000000000002</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <v>32.131</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>31.984999999999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>233</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>64</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>75</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>37.975000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>33.658999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>32.149000000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>32.03</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>233</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>90</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>37.97</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>33.643999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>32.159999999999997</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>32.097000000000001</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>233</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>64</v>
       </c>
       <c r="D5" s="6">
@@ -5525,15 +5594,26 @@
       <c r="H5" s="6">
         <v>234</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="I5" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>64</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>64</v>
       </c>
       <c r="D6" s="6">
@@ -5551,15 +5631,26 @@
       <c r="H6" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="I6" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>64</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>75</v>
       </c>
       <c r="D7" s="6">
@@ -5577,15 +5668,26 @@
       <c r="H7" s="6">
         <v>234</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="I7" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>64</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>75</v>
       </c>
       <c r="D8" s="6">
@@ -5603,15 +5705,26 @@
       <c r="H8" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="I8" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>64</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>75</v>
       </c>
       <c r="D9" s="6">
@@ -5629,15 +5742,26 @@
       <c r="H9" s="6">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="I9" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>64</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>64</v>
       </c>
       <c r="D10" s="6">
@@ -5655,15 +5779,26 @@
       <c r="H10" s="6">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="I10" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>64</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>64</v>
       </c>
       <c r="D11" s="6">
@@ -5681,15 +5816,26 @@
       <c r="H11" s="6">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="I11" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>64</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>64</v>
       </c>
       <c r="D12" s="6">
@@ -5707,15 +5853,26 @@
       <c r="H12" s="6">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="I12" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>64</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>64</v>
       </c>
       <c r="D13" s="6">
@@ -5733,45 +5890,712 @@
       <c r="H13" s="6">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="I13" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>64</v>
+      </c>
+      <c r="C14" s="6">
+        <v>64</v>
+      </c>
+      <c r="D14" s="6">
+        <v>34.353999999999999</v>
+      </c>
+      <c r="E14" s="6">
+        <v>30.306999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>29.079000000000001</v>
+      </c>
+      <c r="G14" s="6">
+        <v>28.088000000000001</v>
+      </c>
+      <c r="H14" s="6">
+        <v>234</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
+        <v>64</v>
+      </c>
+      <c r="C15" s="6">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6">
+        <v>34.298000000000002</v>
+      </c>
+      <c r="E15" s="6">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="F15" s="6">
+        <v>29.08</v>
+      </c>
+      <c r="G15" s="6">
+        <v>28.094999999999999</v>
+      </c>
+      <c r="H15" s="6">
+        <v>233</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6">
+        <v>64</v>
+      </c>
+      <c r="C16" s="6">
+        <v>64</v>
+      </c>
+      <c r="D16" s="6">
+        <v>34.345999999999997</v>
+      </c>
+      <c r="E16" s="6">
+        <v>30.308</v>
+      </c>
+      <c r="F16" s="6">
+        <v>29.068000000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <v>28.109000000000002</v>
+      </c>
+      <c r="H16" s="6">
+        <v>236</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6">
+        <v>34.337000000000003</v>
+      </c>
+      <c r="E17" s="6">
+        <v>30.303999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <v>29.071999999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <v>28.09</v>
+      </c>
+      <c r="H17" s="6">
+        <v>235</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>4</v>
+      </c>
+      <c r="B18" s="6">
+        <v>64</v>
+      </c>
+      <c r="C18" s="6">
+        <v>64</v>
+      </c>
+      <c r="D18" s="6">
+        <v>31.88</v>
+      </c>
+      <c r="E18" s="6">
+        <v>28.437999999999999</v>
+      </c>
+      <c r="F18" s="6">
+        <v>27.466999999999999</v>
+      </c>
+      <c r="G18" s="6">
+        <v>25.704000000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>233</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6">
+        <v>64</v>
+      </c>
+      <c r="C19" s="6">
+        <v>64</v>
+      </c>
+      <c r="D19" s="6">
+        <v>31.855</v>
+      </c>
+      <c r="E19" s="6">
+        <v>28.431000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>27.459</v>
+      </c>
+      <c r="G19" s="6">
+        <v>25.693999999999999</v>
+      </c>
+      <c r="H19" s="6">
+        <v>235</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6">
+        <v>31.885000000000002</v>
+      </c>
+      <c r="E20" s="6">
+        <v>28.43</v>
+      </c>
+      <c r="F20" s="6">
+        <v>27.462</v>
+      </c>
+      <c r="G20" s="6">
+        <v>25.692</v>
+      </c>
+      <c r="H20" s="6">
+        <v>236</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6">
+        <v>64</v>
+      </c>
+      <c r="D21" s="6">
+        <v>31.914000000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>28.427</v>
+      </c>
+      <c r="F21" s="6">
+        <v>27.468</v>
+      </c>
+      <c r="G21" s="6">
+        <v>25.701000000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <v>234</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6089,13 +6913,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6117,8 +6944,124 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>575</v>
-      </c>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" s="5">
+        <v>31.587</v>
+      </c>
+      <c r="D2" s="5">
+        <v>28.234000000000002</v>
+      </c>
+      <c r="E2" s="5">
+        <v>27.306999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>25.308</v>
+      </c>
+      <c r="G2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" s="5">
+        <v>12.686999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>13.831</v>
+      </c>
+      <c r="E3" s="5">
+        <v>14.673</v>
+      </c>
+      <c r="F3" s="5">
+        <v>12.827999999999999</v>
+      </c>
+      <c r="G3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="5">
+        <v>31.562000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>28.210999999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>27.295000000000002</v>
+      </c>
+      <c r="F4" s="5">
+        <v>25.259</v>
+      </c>
+      <c r="G4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C5" s="5">
+        <v>31.541</v>
+      </c>
+      <c r="D5" s="5">
+        <v>28.190999999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27.283000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>25.234000000000002</v>
+      </c>
+      <c r="G5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6128,45 +7071,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987EE552-3FB2-4803-9EF9-132E2CA87291}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>577</v>
       </c>
       <c r="C2" s="6">
@@ -6181,16 +7124,18 @@
       <c r="F2" s="6">
         <v>25.300999999999998</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>577</v>
       </c>
       <c r="C3" s="6">
@@ -6205,16 +7150,18 @@
       <c r="F3" s="6">
         <v>25.297000000000001</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>577</v>
       </c>
       <c r="C4" s="6">
@@ -6229,16 +7176,18 @@
       <c r="F4" s="6">
         <v>25.323</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>577</v>
       </c>
       <c r="C5" s="6">
@@ -6253,41 +7202,651 @@
       <c r="F5" s="6">
         <v>25.29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C6" s="6">
+        <v>33.887</v>
+      </c>
+      <c r="D6" s="6">
+        <v>29.968</v>
+      </c>
+      <c r="E6" s="6">
+        <v>28.84</v>
+      </c>
+      <c r="F6" s="6">
+        <v>27.318000000000001</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C7" s="6">
+        <v>33.874000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>29.984000000000002</v>
+      </c>
+      <c r="E7" s="6">
+        <v>28.853000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <v>27.361999999999998</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" s="6">
+        <v>33.908999999999999</v>
+      </c>
+      <c r="D8" s="6">
+        <v>29.974</v>
+      </c>
+      <c r="E8" s="6">
+        <v>28.852</v>
+      </c>
+      <c r="F8" s="6">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C9" s="6">
+        <v>33.899000000000001</v>
+      </c>
+      <c r="D9" s="6">
+        <v>29.981000000000002</v>
+      </c>
+      <c r="E9" s="6">
+        <v>28.855</v>
+      </c>
+      <c r="F9" s="6">
+        <v>27.350999999999999</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="6">
+        <v>31.616</v>
+      </c>
+      <c r="D10" s="6">
+        <v>28.242000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>27.332999999999998</v>
+      </c>
+      <c r="F10" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C11" s="6">
+        <v>31.605</v>
+      </c>
+      <c r="D11" s="6">
+        <v>28.257000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>27.323</v>
+      </c>
+      <c r="F11" s="6">
+        <v>25.347000000000001</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C12" s="6">
+        <v>31.58</v>
+      </c>
+      <c r="D12" s="6">
+        <v>28.242000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>27.326000000000001</v>
+      </c>
+      <c r="F12" s="6">
+        <v>25.346</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" s="6">
+        <v>31.634</v>
+      </c>
+      <c r="D13" s="6">
+        <v>28.242999999999999</v>
+      </c>
+      <c r="E13" s="6">
+        <v>27.321999999999999</v>
+      </c>
+      <c r="F13" s="6">
+        <v>25.332999999999998</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C14" s="5">
+        <v>30.442</v>
+      </c>
+      <c r="D14" s="5">
+        <v>27.541</v>
+      </c>
+      <c r="E14" s="5">
+        <v>26.954999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <v>24.756</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" s="5">
+        <v>31.236999999999998</v>
+      </c>
+      <c r="D15" s="5">
+        <v>28.032</v>
+      </c>
+      <c r="E15" s="5">
+        <v>27.225999999999999</v>
+      </c>
+      <c r="F15" s="5">
+        <v>25.134</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="C16" s="5">
+        <v>30.271000000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>27.331</v>
+      </c>
+      <c r="E16" s="5">
+        <v>26.884</v>
+      </c>
+      <c r="F16" s="5">
+        <v>24.61</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6296,1581 +7855,2747 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>64</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
         <v>31.579000000000001</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>28.222999999999999</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>27.312000000000001</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>25.306000000000001</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>64</v>
       </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>31.579000000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>28.222999999999999</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>27.312000000000001</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>25.306000000000001</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>64</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
         <v>31.579000000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>28.222999999999999</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>27.312000000000001</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>25.306000000000001</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>64</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>31.579000000000001</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>28.222999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>27.312000000000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>25.306000000000001</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>64</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.3</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
         <v>31.853000000000002</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>28.4</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>27.434000000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>25.658000000000001</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>64</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.3</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>31.809000000000001</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>28.379000000000001</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>27.422000000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>25.614999999999998</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>64</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <v>0.3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
         <v>31.853000000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>28.4</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>27.434000000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>25.658000000000001</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>64</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.3</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>31.809000000000001</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>28.379000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>27.422000000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>25.614999999999998</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>64</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
         <v>31.984000000000002</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>28.513999999999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>27.516999999999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>25.917000000000002</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>64</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>32.116999999999997</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>28.538</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>27.533000000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>25.965</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>64</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
         <v>31.984000000000002</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>28.513999999999999</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>27.516999999999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>25.917000000000002</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>64</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>32.116999999999997</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>28.538</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>27.533000000000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="8">
         <v>25.965</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>64</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>0.3</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>32.048999999999999</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>28.489000000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>27.552</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="8">
         <v>25.98</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>64</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>0.3</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>32.085000000000001</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>28.553000000000001</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>27.552</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="8">
         <v>25.992000000000001</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>64</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>0.3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>32.093000000000004</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>28.559000000000001</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>27.552</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="8">
         <v>25.962</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>64</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>0.3</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>3</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>32.085000000000001</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>28.553000000000001</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>27.552</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="8">
         <v>25.992000000000001</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>64</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
         <v>31.619</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>28.248000000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>27.327999999999999</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="8">
         <v>25.35</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>64</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
         <v>32.063000000000002</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>28.52</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>27.518999999999998</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="8">
         <v>25.9</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>64</v>
       </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
         <v>1</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
         <v>31.625</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>28.25</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>27.323</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8">
         <v>25.343</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>64</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
         <v>32.023000000000003</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>28.513999999999999</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>27.523</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="8">
         <v>25.907</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.3</v>
       </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
         <v>31.844999999999999</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="8">
         <v>28.376999999999999</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>27.437000000000001</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="8">
         <v>25.675999999999998</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>64</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>0.3</v>
       </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
         <v>32.119</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>28.542000000000002</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>27.544</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="8">
         <v>25.974</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>64</v>
       </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <v>0.3</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
         <v>31.824000000000002</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>28.401</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>27.443000000000001</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="8">
         <v>25.675000000000001</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>64</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>0.3</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
         <v>32.112000000000002</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>28.56</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>27.545999999999999</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="8">
         <v>25.952999999999999</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>64</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="B26" s="8">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>3</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>31.619</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>28.248000000000001</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <v>27.327999999999999</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="8">
         <v>25.35</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>64</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>32.103999999999999</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>28.524000000000001</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>27.53</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <v>25.954999999999998</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>64</v>
       </c>
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B28" s="8">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>31.619</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <v>28.248000000000001</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>27.327999999999999</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <v>25.35</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>64</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>1</v>
       </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="8">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>3</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>32.043999999999997</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <v>28.547000000000001</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>27.527999999999999</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <v>25.968</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>64</v>
       </c>
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
         <v>0.3</v>
       </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>31.84</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <v>28.366</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>27.419</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <v>25.603999999999999</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>64</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>0.3</v>
       </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
         <v>3</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>32.113999999999997</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>28.556000000000001</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>27.547999999999998</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <v>25.992000000000001</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>64</v>
       </c>
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
+      <c r="B32" s="8">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8">
         <v>0.3</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>1</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>3</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>31.84</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>28.366</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>27.419</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <v>25.603999999999999</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>64</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>0.3</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>1</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <v>3</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>32.11</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>28.565999999999999</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>27.547999999999998</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <v>25.983000000000001</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="8">
         <v>236</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>75</v>
       </c>
-      <c r="B34" s="7">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="7">
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
         <v>31.675000000000001</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>28.306000000000001</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>27.364999999999998</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <v>25.446999999999999</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>75</v>
       </c>
-      <c r="B35" s="7">
-        <v>0</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="B35" s="8">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>31.702999999999999</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>28.312999999999999</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <v>27.36</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <v>25.44</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>75</v>
       </c>
-      <c r="B36" s="7">
-        <v>0</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
         <v>31.684000000000001</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>28.298999999999999</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="8">
         <v>27.36</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="8">
         <v>25.434999999999999</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>75</v>
       </c>
-      <c r="B37" s="7">
-        <v>0</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>3</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>31.651</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>28.312999999999999</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="8">
         <v>27.364999999999998</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <v>25.446999999999999</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>75</v>
       </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7">
+      <c r="B38" s="8">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8">
         <v>0.3</v>
       </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
         <v>31.940999999999999</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="8">
         <v>28.451000000000001</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="8">
         <v>27.475000000000001</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="8">
         <v>25.754999999999999</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>75</v>
       </c>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7">
+      <c r="B39" s="8">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8">
         <v>0.3</v>
       </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="D39" s="8">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
         <v>3</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>31.908999999999999</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
         <v>28.440999999999999</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="8">
         <v>27.452000000000002</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="8">
         <v>25.722000000000001</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>75</v>
       </c>
-      <c r="B40" s="7">
-        <v>0</v>
-      </c>
-      <c r="C40" s="7">
+      <c r="B40" s="8">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8">
         <v>0.3</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>1</v>
       </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8">
         <v>31.904</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="8">
         <v>28.423999999999999</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="8">
         <v>27.46</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="8">
         <v>25.744</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>75</v>
       </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
         <v>0.3</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>1</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>3</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>31.844999999999999</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>28.422000000000001</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="8">
         <v>27.463000000000001</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="8">
         <v>25.736000000000001</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>75</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="C42" s="8">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
         <v>32.064</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="8">
         <v>28.526</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="8">
         <v>27.538</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="8">
         <v>25.95</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>75</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="C43" s="8">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="8">
         <v>3</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>32.076000000000001</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="8">
         <v>28.552</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="8">
         <v>27.547999999999998</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="8">
         <v>26.021999999999998</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>75</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>1</v>
       </c>
-      <c r="C44" s="7">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44" s="8">
         <v>1</v>
       </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="E44" s="8">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
         <v>32.067</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="8">
         <v>28.542000000000002</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="8">
         <v>27.530999999999999</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="8">
         <v>25.962</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>75</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>1</v>
       </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45" s="8">
         <v>1</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>3</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>32.125</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>28.565999999999999</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="8">
         <v>27.542999999999999</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="8">
         <v>26.033999999999999</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>75</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>0.3</v>
       </c>
-      <c r="D46" s="7">
-        <v>0</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="D46" s="8">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
         <v>32.088000000000001</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>28.562999999999999</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="8">
         <v>27.562000000000001</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="8">
         <v>26.036000000000001</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>75</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>1</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>0.3</v>
       </c>
-      <c r="D47" s="7">
-        <v>0</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="8">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
         <v>3</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>32.093000000000004</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="8">
         <v>28.577999999999999</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="8">
         <v>27.567</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="8">
         <v>26.050999999999998</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>75</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="8">
         <v>1</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>0.3</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>1</v>
       </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="E48" s="8">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
         <v>32.125999999999998</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="8">
         <v>28.594999999999999</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="8">
         <v>27.562999999999999</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="8">
         <v>26.036000000000001</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="8">
         <v>233</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>75</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>1</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>0.3</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <v>1</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <v>3</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>32.15</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="8">
         <v>28.556999999999999</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="8">
         <v>27.571999999999999</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="8">
         <v>26.03</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="8">
         <v>233</v>
       </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>75</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="G50" s="8">
+        <v>28.298999999999999</v>
+      </c>
+      <c r="H50" s="8">
+        <v>27.352</v>
+      </c>
+      <c r="I50" s="8">
+        <v>25.427</v>
+      </c>
+      <c r="J50" s="8">
+        <v>234</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>75</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>3</v>
+      </c>
+      <c r="F51" s="8">
+        <v>31.727</v>
+      </c>
+      <c r="G51" s="8">
+        <v>28.295000000000002</v>
+      </c>
+      <c r="H51" s="8">
+        <v>27.358000000000001</v>
+      </c>
+      <c r="I51" s="8">
+        <v>25.420999999999999</v>
+      </c>
+      <c r="J51" s="8">
+        <v>234</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>75</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0</v>
+      </c>
+      <c r="C52" s="8">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <v>31.654</v>
+      </c>
+      <c r="G52" s="8">
+        <v>28.297999999999998</v>
+      </c>
+      <c r="H52" s="8">
+        <v>27.355</v>
+      </c>
+      <c r="I52" s="8">
+        <v>25.414999999999999</v>
+      </c>
+      <c r="J52" s="8">
+        <v>234</v>
+      </c>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>75</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1</v>
+      </c>
+      <c r="E53" s="8">
+        <v>3</v>
+      </c>
+      <c r="F53" s="8">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="G53" s="8">
+        <v>28.298999999999999</v>
+      </c>
+      <c r="H53" s="8">
+        <v>27.352</v>
+      </c>
+      <c r="I53" s="8">
+        <v>25.427</v>
+      </c>
+      <c r="J53" s="8">
+        <v>234</v>
+      </c>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>75</v>
+      </c>
+      <c r="B54" s="8">
+        <v>0</v>
+      </c>
+      <c r="C54" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <v>31.919</v>
+      </c>
+      <c r="G54" s="8">
+        <v>28.454999999999998</v>
+      </c>
+      <c r="H54" s="8">
+        <v>27.465</v>
+      </c>
+      <c r="I54" s="8">
+        <v>25.754999999999999</v>
+      </c>
+      <c r="J54" s="8">
+        <v>234</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>75</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0</v>
+      </c>
+      <c r="C55" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D55" s="8">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8">
+        <v>3</v>
+      </c>
+      <c r="F55" s="8">
+        <v>31.866</v>
+      </c>
+      <c r="G55" s="8">
+        <v>28.422000000000001</v>
+      </c>
+      <c r="H55" s="8">
+        <v>27.443000000000001</v>
+      </c>
+      <c r="I55" s="8">
+        <v>25.713000000000001</v>
+      </c>
+      <c r="J55" s="8">
+        <v>234</v>
+      </c>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>75</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8">
+        <v>31.934000000000001</v>
+      </c>
+      <c r="G56" s="8">
+        <v>28.443000000000001</v>
+      </c>
+      <c r="H56" s="8">
+        <v>27.466000000000001</v>
+      </c>
+      <c r="I56" s="8">
+        <v>25.762</v>
+      </c>
+      <c r="J56" s="8">
+        <v>234</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>75</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8">
+        <v>3</v>
+      </c>
+      <c r="F57" s="8">
+        <v>31.866</v>
+      </c>
+      <c r="G57" s="8">
+        <v>28.422000000000001</v>
+      </c>
+      <c r="H57" s="8">
+        <v>27.443000000000001</v>
+      </c>
+      <c r="I57" s="8">
+        <v>25.713000000000001</v>
+      </c>
+      <c r="J57" s="8">
+        <v>234</v>
+      </c>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>75</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8">
+        <v>0</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>32.106999999999999</v>
+      </c>
+      <c r="G58" s="8">
+        <v>28.541</v>
+      </c>
+      <c r="H58" s="8">
+        <v>27.538</v>
+      </c>
+      <c r="I58" s="8">
+        <v>25.962</v>
+      </c>
+      <c r="J58" s="8">
+        <v>234</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>75</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8">
+        <v>3</v>
+      </c>
+      <c r="F59" s="8">
+        <v>32.095999999999997</v>
+      </c>
+      <c r="G59" s="8">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="H59" s="8">
+        <v>27.547000000000001</v>
+      </c>
+      <c r="I59" s="8">
+        <v>26.047000000000001</v>
+      </c>
+      <c r="J59" s="8">
+        <v>234</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>75</v>
+      </c>
+      <c r="B60" s="8">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>32.106999999999999</v>
+      </c>
+      <c r="G60" s="8">
+        <v>28.541</v>
+      </c>
+      <c r="H60" s="8">
+        <v>27.538</v>
+      </c>
+      <c r="I60" s="8">
+        <v>25.962</v>
+      </c>
+      <c r="J60" s="8">
+        <v>234</v>
+      </c>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>75</v>
+      </c>
+      <c r="B61" s="8">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8">
+        <v>0</v>
+      </c>
+      <c r="D61" s="8">
+        <v>1</v>
+      </c>
+      <c r="E61" s="8">
+        <v>3</v>
+      </c>
+      <c r="F61" s="8">
+        <v>32.142000000000003</v>
+      </c>
+      <c r="G61" s="8">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="H61" s="8">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="I61" s="8">
+        <v>26.032</v>
+      </c>
+      <c r="J61" s="8">
+        <v>234</v>
+      </c>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>75</v>
+      </c>
+      <c r="B62" s="8">
+        <v>1</v>
+      </c>
+      <c r="C62" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D62" s="8">
+        <v>0</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8">
+        <v>32.103000000000002</v>
+      </c>
+      <c r="G62" s="8">
+        <v>28.568999999999999</v>
+      </c>
+      <c r="H62" s="8">
+        <v>27.558</v>
+      </c>
+      <c r="I62" s="8">
+        <v>26.04</v>
+      </c>
+      <c r="J62" s="8">
+        <v>234</v>
+      </c>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>75</v>
+      </c>
+      <c r="B63" s="8">
+        <v>1</v>
+      </c>
+      <c r="C63" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D63" s="8">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8">
+        <v>3</v>
+      </c>
+      <c r="F63" s="8">
+        <v>32.118000000000002</v>
+      </c>
+      <c r="G63" s="8">
+        <v>28.617000000000001</v>
+      </c>
+      <c r="H63" s="8">
+        <v>27.577000000000002</v>
+      </c>
+      <c r="I63" s="8">
+        <v>26.050999999999998</v>
+      </c>
+      <c r="J63" s="8">
+        <v>234</v>
+      </c>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>75</v>
+      </c>
+      <c r="B64" s="8">
+        <v>1</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>32.146000000000001</v>
+      </c>
+      <c r="G64" s="8">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H64" s="8">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="I64" s="8">
+        <v>26.044</v>
+      </c>
+      <c r="J64" s="8">
+        <v>234</v>
+      </c>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>75</v>
+      </c>
+      <c r="B65" s="8">
+        <v>1</v>
+      </c>
+      <c r="C65" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="8">
+        <v>3</v>
+      </c>
+      <c r="F65" s="8">
+        <v>32.204999999999998</v>
+      </c>
+      <c r="G65" s="8">
+        <v>28.597000000000001</v>
+      </c>
+      <c r="H65" s="8">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="I65" s="8">
+        <v>26.056999999999999</v>
+      </c>
+      <c r="J65" s="8">
+        <v>234</v>
+      </c>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>64</v>
+      </c>
+      <c r="B66" s="8">
+        <v>0</v>
+      </c>
+      <c r="C66" s="8">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G66" s="8">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H66" s="8">
+        <v>27.305</v>
+      </c>
+      <c r="I66" s="8">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J66" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>64</v>
+      </c>
+      <c r="B67" s="8">
+        <v>0</v>
+      </c>
+      <c r="C67" s="8">
+        <v>0</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8">
+        <v>3</v>
+      </c>
+      <c r="F67" s="8">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G67" s="8">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H67" s="8">
+        <v>27.305</v>
+      </c>
+      <c r="I67" s="8">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J67" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>64</v>
+      </c>
+      <c r="B68" s="8">
+        <v>0</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G68" s="8">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H68" s="8">
+        <v>27.305</v>
+      </c>
+      <c r="I68" s="8">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J68" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>64</v>
+      </c>
+      <c r="B69" s="8">
+        <v>0</v>
+      </c>
+      <c r="C69" s="8">
+        <v>0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+      <c r="E69" s="8">
+        <v>3</v>
+      </c>
+      <c r="F69" s="8">
+        <v>31.574999999999999</v>
+      </c>
+      <c r="G69" s="8">
+        <v>28.202000000000002</v>
+      </c>
+      <c r="H69" s="8">
+        <v>27.305</v>
+      </c>
+      <c r="I69" s="8">
+        <v>25.274999999999999</v>
+      </c>
+      <c r="J69" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>64</v>
+      </c>
+      <c r="B70" s="8">
+        <v>0</v>
+      </c>
+      <c r="C70" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8">
+        <v>31.795000000000002</v>
+      </c>
+      <c r="G70" s="8">
+        <v>28.391999999999999</v>
+      </c>
+      <c r="H70" s="8">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I70" s="8">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="J70" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>64</v>
+      </c>
+      <c r="B71" s="8">
+        <v>0</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8">
+        <v>3</v>
+      </c>
+      <c r="F71" s="8">
+        <v>31.776</v>
+      </c>
+      <c r="G71" s="8">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="H71" s="8">
+        <v>27.408999999999999</v>
+      </c>
+      <c r="I71" s="8">
+        <v>25.584</v>
+      </c>
+      <c r="J71" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>64</v>
+      </c>
+      <c r="B72" s="8">
+        <v>0</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>31.795000000000002</v>
+      </c>
+      <c r="G72" s="8">
+        <v>28.391999999999999</v>
+      </c>
+      <c r="H72" s="8">
+        <v>27.434000000000001</v>
+      </c>
+      <c r="I72" s="8">
+        <v>25.664000000000001</v>
+      </c>
+      <c r="J72" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>64</v>
+      </c>
+      <c r="B73" s="8">
+        <v>0</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="8">
+        <v>3</v>
+      </c>
+      <c r="F73" s="8">
+        <v>31.776</v>
+      </c>
+      <c r="G73" s="8">
+        <v>28.376999999999999</v>
+      </c>
+      <c r="H73" s="8">
+        <v>27.408999999999999</v>
+      </c>
+      <c r="I73" s="8">
+        <v>25.584</v>
+      </c>
+      <c r="J73" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>64</v>
+      </c>
+      <c r="B74" s="8">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0</v>
+      </c>
+      <c r="E74" s="8">
+        <v>0</v>
+      </c>
+      <c r="F74" s="8">
+        <v>32.043999999999997</v>
+      </c>
+      <c r="G74" s="8">
+        <v>28.521999999999998</v>
+      </c>
+      <c r="H74" s="8">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="I74" s="8">
+        <v>25.923999999999999</v>
+      </c>
+      <c r="J74" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>64</v>
+      </c>
+      <c r="B75" s="8">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0</v>
+      </c>
+      <c r="E75" s="8">
+        <v>3</v>
+      </c>
+      <c r="F75" s="8">
+        <v>32.048000000000002</v>
+      </c>
+      <c r="G75" s="8">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H75" s="8">
+        <v>27.538</v>
+      </c>
+      <c r="I75" s="8">
+        <v>25.988</v>
+      </c>
+      <c r="J75" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>64</v>
+      </c>
+      <c r="B76" s="8">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <v>0</v>
+      </c>
+      <c r="F76" s="8">
+        <v>32.043999999999997</v>
+      </c>
+      <c r="G76" s="8">
+        <v>28.521999999999998</v>
+      </c>
+      <c r="H76" s="8">
+        <v>27.527999999999999</v>
+      </c>
+      <c r="I76" s="8">
+        <v>25.923999999999999</v>
+      </c>
+      <c r="J76" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>64</v>
+      </c>
+      <c r="B77" s="8">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1</v>
+      </c>
+      <c r="E77" s="8">
+        <v>3</v>
+      </c>
+      <c r="F77" s="8">
+        <v>32.048000000000002</v>
+      </c>
+      <c r="G77" s="8">
+        <v>28.565999999999999</v>
+      </c>
+      <c r="H77" s="8">
+        <v>27.538</v>
+      </c>
+      <c r="I77" s="8">
+        <v>25.988</v>
+      </c>
+      <c r="J77" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>64</v>
+      </c>
+      <c r="B78" s="8">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D78" s="8">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
+        <v>32.08</v>
+      </c>
+      <c r="G78" s="8">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="H78" s="8">
+        <v>27.541</v>
+      </c>
+      <c r="I78" s="8">
+        <v>25.975000000000001</v>
+      </c>
+      <c r="J78" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>64</v>
+      </c>
+      <c r="B79" s="8">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
+        <v>3</v>
+      </c>
+      <c r="F79" s="8">
+        <v>32.055</v>
+      </c>
+      <c r="G79" s="8">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="H79" s="8">
+        <v>27.553000000000001</v>
+      </c>
+      <c r="I79" s="8">
+        <v>25.994</v>
+      </c>
+      <c r="J79" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>64</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
+        <v>32.08</v>
+      </c>
+      <c r="G80" s="8">
+        <v>28.565000000000001</v>
+      </c>
+      <c r="H80" s="8">
+        <v>27.541</v>
+      </c>
+      <c r="I80" s="8">
+        <v>25.975000000000001</v>
+      </c>
+      <c r="J80" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>64</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
+        <v>3</v>
+      </c>
+      <c r="F81" s="8">
+        <v>32.055</v>
+      </c>
+      <c r="G81" s="8">
+        <v>28.562000000000001</v>
+      </c>
+      <c r="H81" s="8">
+        <v>27.553000000000001</v>
+      </c>
+      <c r="I81" s="8">
+        <v>25.994</v>
+      </c>
+      <c r="J81" s="8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938AD913-F721-4883-B91D-F0A456B4DEAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3C83E-2FED-4A68-B2AC-DCF272F7EA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="606">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1794,10 +1794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gpus=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kaiming_normal</t>
   </si>
   <si>
@@ -1899,6 +1895,51 @@
   </si>
   <si>
     <t>seed=235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gpus=2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>plain-m</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpus=2, plain-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repvgg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1947,6 +1988,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2028,10 +2076,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3635,7 +3683,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B2" t="s">
@@ -3664,7 +3712,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>435</v>
       </c>
@@ -3691,7 +3739,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>85</v>
       </c>
@@ -3718,7 +3766,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>77</v>
       </c>
@@ -3745,7 +3793,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>69</v>
       </c>
@@ -3772,7 +3820,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>61</v>
       </c>
@@ -3799,7 +3847,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
@@ -3826,7 +3874,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
@@ -3853,7 +3901,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
@@ -3880,13 +3928,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B19" t="s">
@@ -3915,7 +3963,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>99</v>
       </c>
@@ -3942,7 +3990,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" t="s">
         <v>85</v>
       </c>
@@ -3969,7 +4017,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -3996,7 +4044,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="10"/>
       <c r="B23" t="s">
         <v>69</v>
       </c>
@@ -4023,7 +4071,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -4050,7 +4098,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" t="s">
         <v>53</v>
       </c>
@@ -4077,7 +4125,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -4104,7 +4152,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -4131,13 +4179,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>205</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4166,7 +4214,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>99</v>
       </c>
@@ -4193,7 +4241,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>85</v>
       </c>
@@ -4220,7 +4268,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
@@ -4247,7 +4295,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
         <v>69</v>
       </c>
@@ -4274,7 +4322,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
@@ -4301,7 +4349,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="3" t="s">
         <v>53</v>
       </c>
@@ -4328,7 +4376,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
@@ -4355,7 +4403,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3" t="s">
         <v>37</v>
       </c>
@@ -4382,7 +4430,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3" t="s">
         <v>210</v>
       </c>
@@ -4455,7 +4503,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4481,7 +4529,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -4505,7 +4553,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>99</v>
       </c>
@@ -4529,7 +4577,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>230</v>
       </c>
@@ -4553,7 +4601,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>85</v>
       </c>
@@ -4577,7 +4625,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>242</v>
       </c>
@@ -4601,7 +4649,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
@@ -4625,7 +4673,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>69</v>
       </c>
@@ -4649,7 +4697,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
@@ -4673,7 +4721,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>267</v>
       </c>
@@ -4697,7 +4745,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>274</v>
       </c>
@@ -4721,7 +4769,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
@@ -4745,7 +4793,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
@@ -4769,7 +4817,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4795,7 +4843,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
         <v>217</v>
       </c>
@@ -4819,7 +4867,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
@@ -4843,7 +4891,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
         <v>230</v>
       </c>
@@ -4867,7 +4915,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>85</v>
       </c>
@@ -4891,7 +4939,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>242</v>
       </c>
@@ -4915,7 +4963,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>77</v>
       </c>
@@ -4939,7 +4987,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
@@ -4963,7 +5011,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>53</v>
       </c>
@@ -4987,7 +5035,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>267</v>
       </c>
@@ -5011,7 +5059,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>274</v>
       </c>
@@ -5035,7 +5083,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>61</v>
       </c>
@@ -5059,7 +5107,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
       </c>
@@ -5083,7 +5131,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -5109,7 +5157,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="3" t="s">
         <v>217</v>
       </c>
@@ -5133,7 +5181,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
@@ -5157,7 +5205,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
       <c r="B50" s="3" t="s">
         <v>230</v>
       </c>
@@ -5181,7 +5229,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
       <c r="B51" s="3" t="s">
         <v>85</v>
       </c>
@@ -5205,7 +5253,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="3" t="s">
         <v>242</v>
       </c>
@@ -5229,7 +5277,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
       <c r="B53" s="3" t="s">
         <v>77</v>
       </c>
@@ -5253,7 +5301,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
       <c r="B54" s="3" t="s">
         <v>69</v>
       </c>
@@ -5277,7 +5325,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>53</v>
       </c>
@@ -5301,7 +5349,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="3" t="s">
         <v>267</v>
       </c>
@@ -5325,7 +5373,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
       <c r="B57" s="3" t="s">
         <v>274</v>
       </c>
@@ -5349,7 +5397,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
       <c r="B58" s="3" t="s">
         <v>61</v>
       </c>
@@ -5373,7 +5421,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -5411,14 +5459,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -5458,7 +5507,7 @@
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -5484,7 +5533,7 @@
         <v>233</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -5521,7 +5570,7 @@
         <v>233</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -5558,7 +5607,7 @@
         <v>233</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>570</v>
+        <v>601</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -5595,7 +5644,7 @@
         <v>234</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -5632,7 +5681,7 @@
         <v>235</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -5669,7 +5718,7 @@
         <v>234</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -5706,7 +5755,7 @@
         <v>235</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -5743,7 +5792,7 @@
         <v>236</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -5756,7 +5805,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6">
         <v>64</v>
@@ -5765,22 +5814,22 @@
         <v>64</v>
       </c>
       <c r="D10" s="6">
-        <v>32.116999999999997</v>
+        <v>34.353999999999999</v>
       </c>
       <c r="E10" s="6">
-        <v>28.568999999999999</v>
+        <v>30.306999999999999</v>
       </c>
       <c r="F10" s="6">
-        <v>27.547999999999998</v>
+        <v>29.079000000000001</v>
       </c>
       <c r="G10" s="6">
-        <v>25.984000000000002</v>
+        <v>28.088000000000001</v>
       </c>
       <c r="H10" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -5793,7 +5842,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="6">
         <v>64</v>
@@ -5802,22 +5851,22 @@
         <v>64</v>
       </c>
       <c r="D11" s="6">
-        <v>32.100999999999999</v>
+        <v>34.298000000000002</v>
       </c>
       <c r="E11" s="6">
-        <v>28.564</v>
+        <v>30.312000000000001</v>
       </c>
       <c r="F11" s="6">
-        <v>27.55</v>
+        <v>29.08</v>
       </c>
       <c r="G11" s="6">
-        <v>25.99</v>
+        <v>28.094999999999999</v>
       </c>
       <c r="H11" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5830,7 +5879,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="6">
         <v>64</v>
@@ -5839,22 +5888,22 @@
         <v>64</v>
       </c>
       <c r="D12" s="6">
-        <v>32.088000000000001</v>
+        <v>34.345999999999997</v>
       </c>
       <c r="E12" s="6">
-        <v>28.567</v>
+        <v>30.308</v>
       </c>
       <c r="F12" s="6">
-        <v>27.547999999999998</v>
+        <v>29.068000000000001</v>
       </c>
       <c r="G12" s="6">
-        <v>25.98</v>
+        <v>28.109000000000002</v>
       </c>
       <c r="H12" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -5867,7 +5916,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="6">
         <v>64</v>
@@ -5876,22 +5925,22 @@
         <v>64</v>
       </c>
       <c r="D13" s="6">
-        <v>32.11</v>
+        <v>34.337000000000003</v>
       </c>
       <c r="E13" s="6">
-        <v>28.564</v>
+        <v>30.303999999999998</v>
       </c>
       <c r="F13" s="6">
-        <v>27.55</v>
+        <v>29.071999999999999</v>
       </c>
       <c r="G13" s="6">
-        <v>26.007000000000001</v>
+        <v>28.09</v>
       </c>
       <c r="H13" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -5913,22 +5962,22 @@
         <v>64</v>
       </c>
       <c r="D14" s="6">
-        <v>34.353999999999999</v>
+        <v>34.149000000000001</v>
       </c>
       <c r="E14" s="6">
-        <v>30.306999999999999</v>
+        <v>30.161999999999999</v>
       </c>
       <c r="F14" s="6">
-        <v>29.079000000000001</v>
+        <v>28.984999999999999</v>
       </c>
       <c r="G14" s="6">
-        <v>28.088000000000001</v>
+        <v>27.759</v>
       </c>
       <c r="H14" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -5950,22 +5999,22 @@
         <v>64</v>
       </c>
       <c r="D15" s="6">
-        <v>34.298000000000002</v>
+        <v>34.179000000000002</v>
       </c>
       <c r="E15" s="6">
-        <v>30.312000000000001</v>
+        <v>30.158999999999999</v>
       </c>
       <c r="F15" s="6">
-        <v>29.08</v>
+        <v>28.986999999999998</v>
       </c>
       <c r="G15" s="6">
-        <v>28.094999999999999</v>
+        <v>27.744</v>
       </c>
       <c r="H15" s="6">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5987,22 +6036,22 @@
         <v>64</v>
       </c>
       <c r="D16" s="6">
-        <v>34.345999999999997</v>
+        <v>34.158000000000001</v>
       </c>
       <c r="E16" s="6">
-        <v>30.308</v>
+        <v>30.187999999999999</v>
       </c>
       <c r="F16" s="6">
-        <v>29.068000000000001</v>
+        <v>28.988</v>
       </c>
       <c r="G16" s="6">
-        <v>28.109000000000002</v>
+        <v>27.734999999999999</v>
       </c>
       <c r="H16" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -6024,22 +6073,22 @@
         <v>64</v>
       </c>
       <c r="D17" s="6">
-        <v>34.337000000000003</v>
+        <v>34.136000000000003</v>
       </c>
       <c r="E17" s="6">
-        <v>30.303999999999998</v>
+        <v>30.175999999999998</v>
       </c>
       <c r="F17" s="6">
-        <v>29.071999999999999</v>
+        <v>28.988</v>
       </c>
       <c r="G17" s="6">
-        <v>28.09</v>
+        <v>27.76</v>
       </c>
       <c r="H17" s="6">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -6061,16 +6110,16 @@
         <v>64</v>
       </c>
       <c r="D18" s="6">
-        <v>31.88</v>
+        <v>32.116999999999997</v>
       </c>
       <c r="E18" s="6">
-        <v>28.437999999999999</v>
+        <v>28.568999999999999</v>
       </c>
       <c r="F18" s="6">
-        <v>27.466999999999999</v>
+        <v>27.547999999999998</v>
       </c>
       <c r="G18" s="6">
-        <v>25.704000000000001</v>
+        <v>25.984000000000002</v>
       </c>
       <c r="H18" s="6">
         <v>233</v>
@@ -6098,19 +6147,19 @@
         <v>64</v>
       </c>
       <c r="D19" s="6">
-        <v>31.855</v>
+        <v>32.100999999999999</v>
       </c>
       <c r="E19" s="6">
-        <v>28.431000000000001</v>
+        <v>28.564</v>
       </c>
       <c r="F19" s="6">
-        <v>27.459</v>
+        <v>27.55</v>
       </c>
       <c r="G19" s="6">
-        <v>25.693999999999999</v>
+        <v>25.99</v>
       </c>
       <c r="H19" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>594</v>
@@ -6135,19 +6184,19 @@
         <v>64</v>
       </c>
       <c r="D20" s="6">
-        <v>31.885000000000002</v>
+        <v>32.088000000000001</v>
       </c>
       <c r="E20" s="6">
-        <v>28.43</v>
+        <v>28.567</v>
       </c>
       <c r="F20" s="6">
-        <v>27.462</v>
+        <v>27.547999999999998</v>
       </c>
       <c r="G20" s="6">
-        <v>25.692</v>
+        <v>25.98</v>
       </c>
       <c r="H20" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>594</v>
@@ -6172,19 +6221,19 @@
         <v>64</v>
       </c>
       <c r="D21" s="6">
-        <v>31.914000000000001</v>
+        <v>32.11</v>
       </c>
       <c r="E21" s="6">
-        <v>28.427</v>
+        <v>28.564</v>
       </c>
       <c r="F21" s="6">
-        <v>27.468</v>
+        <v>27.55</v>
       </c>
       <c r="G21" s="6">
-        <v>25.701000000000001</v>
+        <v>26.007000000000001</v>
       </c>
       <c r="H21" s="6">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>594</v>
@@ -6199,15 +6248,33 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6">
+        <v>64</v>
+      </c>
+      <c r="D22" s="6">
+        <v>31.88</v>
+      </c>
+      <c r="E22" s="6">
+        <v>28.437999999999999</v>
+      </c>
+      <c r="F22" s="6">
+        <v>27.466999999999999</v>
+      </c>
+      <c r="G22" s="6">
+        <v>25.704000000000001</v>
+      </c>
+      <c r="H22" s="6">
+        <v>233</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -6218,15 +6285,33 @@
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6">
+        <v>64</v>
+      </c>
+      <c r="D23" s="6">
+        <v>31.855</v>
+      </c>
+      <c r="E23" s="6">
+        <v>28.431000000000001</v>
+      </c>
+      <c r="F23" s="6">
+        <v>27.459</v>
+      </c>
+      <c r="G23" s="6">
+        <v>25.693999999999999</v>
+      </c>
+      <c r="H23" s="6">
+        <v>235</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -6237,15 +6322,33 @@
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="6">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6">
+        <v>64</v>
+      </c>
+      <c r="D24" s="6">
+        <v>31.885000000000002</v>
+      </c>
+      <c r="E24" s="6">
+        <v>28.43</v>
+      </c>
+      <c r="F24" s="6">
+        <v>27.462</v>
+      </c>
+      <c r="G24" s="6">
+        <v>25.692</v>
+      </c>
+      <c r="H24" s="6">
+        <v>236</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -6256,15 +6359,33 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="6">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6">
+        <v>64</v>
+      </c>
+      <c r="D25" s="6">
+        <v>31.914000000000001</v>
+      </c>
+      <c r="E25" s="6">
+        <v>28.427</v>
+      </c>
+      <c r="F25" s="6">
+        <v>27.468</v>
+      </c>
+      <c r="G25" s="6">
+        <v>25.701000000000001</v>
+      </c>
+      <c r="H25" s="6">
+        <v>234</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>593</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -6275,15 +6396,33 @@
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="6">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6">
+        <v>64</v>
+      </c>
+      <c r="C26" s="6">
+        <v>64</v>
+      </c>
+      <c r="D26" s="6">
+        <v>34.298000000000002</v>
+      </c>
+      <c r="E26" s="6">
+        <v>30.312000000000001</v>
+      </c>
+      <c r="F26" s="6">
+        <v>29.08</v>
+      </c>
+      <c r="G26" s="6">
+        <v>28.094999999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>233</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -6294,15 +6433,33 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="6">
+        <v>3</v>
+      </c>
+      <c r="B27" s="6">
+        <v>64</v>
+      </c>
+      <c r="C27" s="6">
+        <v>64</v>
+      </c>
+      <c r="D27" s="6">
+        <v>34.353999999999999</v>
+      </c>
+      <c r="E27" s="6">
+        <v>30.306999999999999</v>
+      </c>
+      <c r="F27" s="6">
+        <v>29.079000000000001</v>
+      </c>
+      <c r="G27" s="6">
+        <v>28.088000000000001</v>
+      </c>
+      <c r="H27" s="6">
+        <v>234</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -6313,15 +6470,33 @@
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="6">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6">
+        <v>34.337000000000003</v>
+      </c>
+      <c r="E28" s="6">
+        <v>30.303999999999998</v>
+      </c>
+      <c r="F28" s="6">
+        <v>29.071999999999999</v>
+      </c>
+      <c r="G28" s="6">
+        <v>28.09</v>
+      </c>
+      <c r="H28" s="6">
+        <v>235</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -6332,15 +6507,33 @@
       <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6">
+        <v>64</v>
+      </c>
+      <c r="C29" s="6">
+        <v>64</v>
+      </c>
+      <c r="D29" s="6">
+        <v>34.345999999999997</v>
+      </c>
+      <c r="E29" s="6">
+        <v>30.308</v>
+      </c>
+      <c r="F29" s="6">
+        <v>29.068000000000001</v>
+      </c>
+      <c r="G29" s="6">
+        <v>28.109000000000002</v>
+      </c>
+      <c r="H29" s="6">
+        <v>236</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -6351,15 +6544,33 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="6">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6">
+        <v>90</v>
+      </c>
+      <c r="D30" s="6">
+        <v>34.439</v>
+      </c>
+      <c r="E30" s="6">
+        <v>30.373999999999999</v>
+      </c>
+      <c r="F30" s="6">
+        <v>29.114000000000001</v>
+      </c>
+      <c r="G30" s="6">
+        <v>28.239000000000001</v>
+      </c>
+      <c r="H30" s="6">
+        <v>233</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -6370,15 +6581,33 @@
       <c r="Q30" s="6"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="6">
+        <v>3</v>
+      </c>
+      <c r="B31" s="6">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6">
+        <v>90</v>
+      </c>
+      <c r="D31" s="6">
+        <v>34.457000000000001</v>
+      </c>
+      <c r="E31" s="6">
+        <v>30.352</v>
+      </c>
+      <c r="F31" s="6">
+        <v>29.11</v>
+      </c>
+      <c r="G31" s="6">
+        <v>28.225000000000001</v>
+      </c>
+      <c r="H31" s="6">
+        <v>235</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -6389,15 +6618,33 @@
       <c r="Q31" s="6"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6">
+        <v>90</v>
+      </c>
+      <c r="D32" s="6">
+        <v>34.463999999999999</v>
+      </c>
+      <c r="E32" s="6">
+        <v>30.390999999999998</v>
+      </c>
+      <c r="F32" s="6">
+        <v>29.113</v>
+      </c>
+      <c r="G32" s="6">
+        <v>28.242000000000001</v>
+      </c>
+      <c r="H32" s="6">
+        <v>236</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>594</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -6449,10 +6696,10 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -6468,10 +6715,10 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -6487,10 +6734,10 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -6506,10 +6753,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -6525,9 +6772,9 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -6544,9 +6791,9 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6598,6 +6845,9 @@
       <c r="Q42" s="6"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I42">
+    <sortCondition ref="A1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6638,15 +6888,15 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="10">
         <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C2" s="7">
         <v>31.5855</v>
@@ -6661,13 +6911,13 @@
         <v>25.289300000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C3" s="7">
         <v>31.558700000000002</v>
@@ -6682,13 +6932,13 @@
         <v>25.28</v>
       </c>
       <c r="G3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C4" s="7">
         <v>31.578499999999998</v>
@@ -6703,13 +6953,13 @@
         <v>25.2913</v>
       </c>
       <c r="G4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C5" s="7">
         <v>31.552700000000002</v>
@@ -6724,15 +6974,15 @@
         <v>25.2835</v>
       </c>
       <c r="G5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C6" s="7">
         <v>33.880000000000003</v>
@@ -6747,13 +6997,13 @@
         <v>27.304300000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C7" s="7">
         <v>33.861499999999999</v>
@@ -6768,13 +7018,13 @@
         <v>27.288499999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C8" s="7">
         <v>33.884</v>
@@ -6789,13 +7039,13 @@
         <v>27.3187</v>
       </c>
       <c r="G8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C9" s="7">
         <v>33.859299999999998</v>
@@ -6810,15 +7060,15 @@
         <v>27.2943</v>
       </c>
       <c r="G9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C10" s="7">
         <v>37.588000000000001</v>
@@ -6833,13 +7083,13 @@
         <v>31.092500000000001</v>
       </c>
       <c r="G10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C11" s="7">
         <v>37.585999999999999</v>
@@ -6854,13 +7104,13 @@
         <v>31.096800000000002</v>
       </c>
       <c r="G11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" s="7">
         <v>37.593499999999999</v>
@@ -6875,13 +7125,13 @@
         <v>31.070499999999999</v>
       </c>
       <c r="G12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C13" s="7">
         <v>37.587000000000003</v>
@@ -6896,7 +7146,7 @@
         <v>31.049499999999998</v>
       </c>
       <c r="G13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6913,10 +7163,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6924,7 +7174,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>209</v>
       </c>
@@ -6944,100 +7194,347 @@
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+      <c r="H1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C2" s="5">
+        <v>595</v>
+      </c>
+      <c r="C2" s="6">
         <v>31.587</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>28.234000000000002</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>27.306999999999999</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>25.308</v>
       </c>
       <c r="G2">
         <v>233</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C3" s="5">
+        <v>595</v>
+      </c>
+      <c r="C3" s="6">
         <v>12.686999999999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>13.831</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>14.673</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>12.827999999999999</v>
       </c>
       <c r="G3">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C4" s="5">
+        <v>595</v>
+      </c>
+      <c r="C4" s="6">
         <v>31.562000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>28.210999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>27.295000000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>25.259</v>
       </c>
       <c r="G4">
         <v>236</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C5" s="5">
+        <v>595</v>
+      </c>
+      <c r="C5" s="6">
         <v>31.541</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>28.190999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>27.283000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>25.234000000000002</v>
       </c>
       <c r="G5">
         <v>234</v>
       </c>
+      <c r="H5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="6">
+        <v>30.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>27.620999999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>26.925000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>24.559000000000001</v>
+      </c>
+      <c r="G6">
+        <v>233</v>
+      </c>
+      <c r="H6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7" s="6">
+        <v>30.571999999999999</v>
+      </c>
+      <c r="D7" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>26.905000000000001</v>
+      </c>
+      <c r="F7" s="6">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="G7">
+        <v>234</v>
+      </c>
+      <c r="H7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C8" s="6">
+        <v>30.616</v>
+      </c>
+      <c r="D8" s="6">
+        <v>27.603999999999999</v>
+      </c>
+      <c r="E8" s="6">
+        <v>26.927</v>
+      </c>
+      <c r="F8" s="6">
+        <v>24.550999999999998</v>
+      </c>
+      <c r="G8">
+        <v>235</v>
+      </c>
+      <c r="H8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" s="6">
+        <v>30.616</v>
+      </c>
+      <c r="D9" s="6">
+        <v>27.622</v>
+      </c>
+      <c r="E9" s="6">
+        <v>26.931999999999999</v>
+      </c>
+      <c r="F9" s="6">
+        <v>24.559000000000001</v>
+      </c>
+      <c r="G9">
+        <v>236</v>
+      </c>
+      <c r="H9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="6">
+        <v>30.454999999999998</v>
+      </c>
+      <c r="D10" s="6">
+        <v>27.515999999999998</v>
+      </c>
+      <c r="E10" s="6">
+        <v>26.826000000000001</v>
+      </c>
+      <c r="F10" s="6">
+        <v>24.504000000000001</v>
+      </c>
+      <c r="G10">
+        <v>233</v>
+      </c>
+      <c r="H10" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" s="6">
+        <v>30.509</v>
+      </c>
+      <c r="D11" s="6">
+        <v>27.539000000000001</v>
+      </c>
+      <c r="E11" s="6">
+        <v>26.876000000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>24.521000000000001</v>
+      </c>
+      <c r="G11">
+        <v>234</v>
+      </c>
+      <c r="H11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30.332999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <v>27.49</v>
+      </c>
+      <c r="E12" s="6">
+        <v>26.824000000000002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>24.512</v>
+      </c>
+      <c r="G12">
+        <v>235</v>
+      </c>
+      <c r="H12" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>605</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30.443000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>27.535</v>
+      </c>
+      <c r="E13" s="6">
+        <v>26.858000000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>24.536999999999999</v>
+      </c>
+      <c r="G13">
+        <v>236</v>
+      </c>
+      <c r="H13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
@@ -7074,7 +7571,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7099,10 +7596,10 @@
         <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -7110,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C2" s="6">
         <v>31.58</v>
@@ -7125,10 +7622,10 @@
         <v>25.300999999999998</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -7136,7 +7633,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" s="6">
         <v>31.59</v>
@@ -7151,10 +7648,10 @@
         <v>25.297000000000001</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -7162,7 +7659,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C4" s="6">
         <v>31.602</v>
@@ -7177,10 +7674,10 @@
         <v>25.323</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -7188,7 +7685,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C5" s="6">
         <v>31.577000000000002</v>
@@ -7203,10 +7700,10 @@
         <v>25.29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -7214,7 +7711,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C6" s="6">
         <v>33.887</v>
@@ -7229,10 +7726,10 @@
         <v>27.318000000000001</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -7240,7 +7737,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C7" s="6">
         <v>33.874000000000002</v>
@@ -7255,10 +7752,10 @@
         <v>27.361999999999998</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -7266,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C8" s="6">
         <v>33.908999999999999</v>
@@ -7281,10 +7778,10 @@
         <v>27.327999999999999</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -7292,7 +7789,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C9" s="6">
         <v>33.899000000000001</v>
@@ -7307,10 +7804,10 @@
         <v>27.350999999999999</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -7318,7 +7815,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C10" s="6">
         <v>31.616</v>
@@ -7333,10 +7830,10 @@
         <v>25.34</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -7344,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C11" s="6">
         <v>31.605</v>
@@ -7359,10 +7856,10 @@
         <v>25.347000000000001</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -7370,7 +7867,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C12" s="6">
         <v>31.58</v>
@@ -7385,10 +7882,10 @@
         <v>25.346</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -7408,7 +7905,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C13" s="6">
         <v>31.634</v>
@@ -7423,10 +7920,10 @@
         <v>25.332999999999998</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -7446,7 +7943,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C14" s="5">
         <v>30.442</v>
@@ -7461,10 +7958,10 @@
         <v>24.756</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -7484,7 +7981,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C15" s="5">
         <v>31.236999999999998</v>
@@ -7499,10 +7996,10 @@
         <v>25.134</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -7522,7 +8019,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C16" s="5">
         <v>30.271000000000001</v>
@@ -7537,10 +8034,10 @@
         <v>24.61</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -7556,14 +8053,20 @@
       <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -7578,13 +8081,20 @@
       <c r="T17" s="6"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -7599,13 +8109,20 @@
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
+      <c r="A19" s="6">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -7620,13 +8137,20 @@
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
+      <c r="A20" s="6">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>597</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -7857,41 +8381,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77F8BA6-364B-4310-A067-116A9788ACD9}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>568</v>
       </c>
       <c r="K1" s="8"/>

--- a/experiment/fig1/data.xlsx
+++ b/experiment/fig1/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E3C83E-2FED-4A68-B2AC-DCF272F7EA4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9D0B8-4A47-4181-91E3-38C88EE7D06D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="611">
   <si>
     <t>Model name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1940,6 +1940,25 @@
   </si>
   <si>
     <t>repvgg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PISR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plain-x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eps=0.13</t>
+  </si>
+  <si>
+    <t>eps=0.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3068,7 +3087,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5457,10 +5476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA95C91-B6C8-4307-9909-FC5B47603D22}">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5498,7 +5517,9 @@
       <c r="I1" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>610</v>
+      </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -6655,16 +6676,36 @@
       <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="6">
+        <v>64</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D33" s="6">
+        <v>32.201000000000001</v>
+      </c>
+      <c r="E33" s="6">
+        <v>28.617000000000001</v>
+      </c>
+      <c r="F33" s="6">
+        <v>27.597999999999999</v>
+      </c>
+      <c r="G33" s="6">
+        <v>26.172000000000001</v>
+      </c>
+      <c r="H33" s="6">
+        <v>233</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J33" s="6">
+        <v>20</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -6674,16 +6715,36 @@
       <c r="Q33" s="6"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+      <c r="A34" s="6">
+        <v>4</v>
+      </c>
+      <c r="B34" s="6">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D34" s="6">
+        <v>32.146000000000001</v>
+      </c>
+      <c r="E34" s="6">
+        <v>28.629000000000001</v>
+      </c>
+      <c r="F34" s="6">
+        <v>27.594999999999999</v>
+      </c>
+      <c r="G34" s="6">
+        <v>26.169</v>
+      </c>
+      <c r="H34" s="6">
+        <v>234</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J34" s="6">
+        <v>20</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -6693,16 +6754,36 @@
       <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
+      <c r="A35" s="6">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D35" s="6">
+        <v>32.191000000000003</v>
+      </c>
+      <c r="E35" s="6">
+        <v>28.628</v>
+      </c>
+      <c r="F35" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="G35" s="6">
+        <v>26.167999999999999</v>
+      </c>
+      <c r="H35" s="6">
+        <v>235</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J35" s="6">
+        <v>20</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -6712,16 +6793,36 @@
       <c r="Q35" s="6"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="A36" s="6">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6">
+        <v>64</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D36" s="6">
+        <v>32.226999999999997</v>
+      </c>
+      <c r="E36" s="6">
+        <v>28.646999999999998</v>
+      </c>
+      <c r="F36" s="6">
+        <v>27.608000000000001</v>
+      </c>
+      <c r="G36" s="6">
+        <v>26.172999999999998</v>
+      </c>
+      <c r="H36" s="6">
+        <v>236</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="J36" s="6">
+        <v>20</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -6731,16 +6832,36 @@
       <c r="Q36" s="6"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6">
+        <v>64</v>
+      </c>
+      <c r="C37" s="6">
+        <v>64</v>
+      </c>
+      <c r="D37" s="6">
+        <v>37.981999999999999</v>
+      </c>
+      <c r="E37" s="6">
+        <v>33.588999999999999</v>
+      </c>
+      <c r="F37" s="6">
+        <v>32.182000000000002</v>
+      </c>
+      <c r="G37" s="6">
+        <v>32.097999999999999</v>
+      </c>
+      <c r="H37" s="6">
+        <v>233</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J37" s="6">
+        <v>233</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -6750,16 +6871,28 @@
       <c r="Q37" s="6"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+      <c r="A38" s="6">
+        <v>2</v>
+      </c>
+      <c r="B38" s="6">
+        <v>64</v>
+      </c>
+      <c r="C38" s="6">
+        <v>64</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
+        <v>234</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J38" s="6">
+        <v>233</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -6769,16 +6902,36 @@
       <c r="Q38" s="6"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
+      <c r="A39" s="6">
+        <v>2</v>
+      </c>
+      <c r="B39" s="6">
+        <v>64</v>
+      </c>
+      <c r="C39" s="6">
+        <v>64</v>
+      </c>
+      <c r="D39" s="6">
+        <v>37.984999999999999</v>
+      </c>
+      <c r="E39" s="6">
+        <v>33.655000000000001</v>
+      </c>
+      <c r="F39" s="6">
+        <v>32.186999999999998</v>
+      </c>
+      <c r="G39" s="6">
+        <v>32.113</v>
+      </c>
+      <c r="H39" s="6">
+        <v>235</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J39" s="6">
+        <v>233</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -6788,16 +6941,36 @@
       <c r="Q39" s="6"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="A40" s="6">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6">
+        <v>64</v>
+      </c>
+      <c r="C40" s="6">
+        <v>64</v>
+      </c>
+      <c r="D40" s="6">
+        <v>37.991999999999997</v>
+      </c>
+      <c r="E40" s="6">
+        <v>33.658000000000001</v>
+      </c>
+      <c r="F40" s="6">
+        <v>32.194000000000003</v>
+      </c>
+      <c r="G40" s="6">
+        <v>32.091000000000001</v>
+      </c>
+      <c r="H40" s="6">
+        <v>236</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="J40" s="6">
+        <v>233</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -6807,16 +6980,36 @@
       <c r="Q40" s="6"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="A41" s="6">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6">
+        <v>64</v>
+      </c>
+      <c r="C41" s="6">
+        <v>64</v>
+      </c>
+      <c r="D41" s="6">
+        <v>37.872</v>
+      </c>
+      <c r="E41" s="6">
+        <v>33.457000000000001</v>
+      </c>
+      <c r="F41" s="6">
+        <v>32.097999999999999</v>
+      </c>
+      <c r="G41" s="6">
+        <v>31.704000000000001</v>
+      </c>
+      <c r="H41" s="6">
+        <v>233</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="J41" s="6">
+        <v>233</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -6826,16 +7019,36 @@
       <c r="Q41" s="6"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+      <c r="A42" s="6">
+        <v>2</v>
+      </c>
+      <c r="B42" s="6">
+        <v>64</v>
+      </c>
+      <c r="C42" s="6">
+        <v>64</v>
+      </c>
+      <c r="D42" s="6">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="E42" s="6">
+        <v>33.427999999999997</v>
+      </c>
+      <c r="F42" s="6">
+        <v>32.097000000000001</v>
+      </c>
+      <c r="G42" s="6">
+        <v>31.719000000000001</v>
+      </c>
+      <c r="H42" s="6">
+        <v>234</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="J42" s="6">
+        <v>233</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -6843,6 +7056,99 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>2</v>
+      </c>
+      <c r="B43" s="6">
+        <v>64</v>
+      </c>
+      <c r="C43" s="6">
+        <v>64</v>
+      </c>
+      <c r="D43" s="6">
+        <v>37.874000000000002</v>
+      </c>
+      <c r="E43" s="6">
+        <v>33.454999999999998</v>
+      </c>
+      <c r="F43" s="6">
+        <v>32.095999999999997</v>
+      </c>
+      <c r="G43" s="6">
+        <v>31.722999999999999</v>
+      </c>
+      <c r="H43" s="6">
+        <v>235</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="J43" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>2</v>
+      </c>
+      <c r="B44" s="6">
+        <v>64</v>
+      </c>
+      <c r="C44" s="6">
+        <v>64</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
+        <v>236</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="J44" s="6">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="E53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:I42">
@@ -7163,10 +7469,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78BDE62-8A86-4F46-8636-C0FD24605CA2}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A9" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7174,37 +7480,39 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>595</v>
       </c>
       <c r="C2" s="6">
@@ -7219,18 +7527,20 @@
       <c r="F2" s="6">
         <v>25.308</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <v>233</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>595</v>
       </c>
       <c r="C3" s="6">
@@ -7245,18 +7555,20 @@
       <c r="F3" s="6">
         <v>12.827999999999999</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>235</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>595</v>
       </c>
       <c r="C4" s="6">
@@ -7271,18 +7583,20 @@
       <c r="F4" s="6">
         <v>25.259</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>236</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>595</v>
       </c>
       <c r="C5" s="6">
@@ -7297,18 +7611,20 @@
       <c r="F5" s="6">
         <v>25.234000000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>234</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C6" s="6">
@@ -7323,18 +7639,20 @@
       <c r="F6" s="6">
         <v>24.559000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>233</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C7" s="6">
@@ -7349,18 +7667,20 @@
       <c r="F7" s="6">
         <v>24.524000000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <v>234</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C8" s="6">
@@ -7375,18 +7695,20 @@
       <c r="F8" s="6">
         <v>24.550999999999998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <v>235</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C9" s="6">
@@ -7401,18 +7723,20 @@
       <c r="F9" s="6">
         <v>24.559000000000001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>236</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C10" s="6">
@@ -7427,18 +7751,20 @@
       <c r="F10" s="6">
         <v>24.504000000000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <v>233</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C11" s="6">
@@ -7453,18 +7779,20 @@
       <c r="F11" s="6">
         <v>24.521000000000001</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <v>234</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C12" s="6">
@@ -7479,18 +7807,20 @@
       <c r="F12" s="6">
         <v>24.512</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <v>235</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>605</v>
       </c>
       <c r="C13" s="6">
@@ -7505,56 +7835,211 @@
       <c r="F13" s="6">
         <v>24.536999999999999</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <v>236</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>4</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" s="6">
+        <v>31.581</v>
+      </c>
+      <c r="D14" s="6">
+        <v>28.24</v>
+      </c>
+      <c r="E14" s="6">
+        <v>27.321999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <v>25.327999999999999</v>
+      </c>
+      <c r="G14" s="6">
+        <v>233</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C15" s="6">
+        <v>31.619</v>
+      </c>
+      <c r="D15" s="6">
+        <v>28.251000000000001</v>
+      </c>
+      <c r="E15" s="6">
+        <v>27.332999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <v>25.353999999999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>234</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C16" s="6">
+        <v>31.623999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <v>28.248999999999999</v>
+      </c>
+      <c r="E16" s="6">
+        <v>27.327999999999999</v>
+      </c>
+      <c r="F16" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="G16" s="6">
+        <v>235</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C17" s="6">
+        <v>31.667000000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>28.282</v>
+      </c>
+      <c r="E17" s="6">
+        <v>27.337</v>
+      </c>
+      <c r="F17" s="6">
+        <v>25.381</v>
+      </c>
+      <c r="G17" s="6">
+        <v>236</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -7563,15 +8048,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987EE552-3FB2-4803-9EF9-132E2CA87291}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7942,19 +8428,19 @@
       <c r="A14" s="6">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>30.442</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>27.541</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>26.954999999999998</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>24.756</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -7980,19 +8466,19 @@
       <c r="A15" s="6">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>31.236999999999998</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>28.032</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>27.225999999999999</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>25.134</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -8018,19 +8504,19 @@
       <c r="A16" s="6">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>30.271000000000001</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>27.331</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>26.884</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>24.61</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -8056,14 +8542,24 @@
       <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="6">
+        <v>33.661999999999999</v>
+      </c>
+      <c r="D17" s="6">
+        <v>29.84</v>
+      </c>
+      <c r="E17" s="6">
+        <v>28.765000000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>27.088000000000001</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>577</v>
+      </c>
       <c r="H17" s="6" t="s">
         <v>592</v>
       </c>
@@ -8084,14 +8580,24 @@
       <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="6">
+        <v>33.652000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>29.850999999999999</v>
+      </c>
+      <c r="E18" s="6">
+        <v>28.771000000000001</v>
+      </c>
+      <c r="F18" s="6">
+        <v>27.102</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>578</v>
+      </c>
       <c r="H18" s="6" t="s">
         <v>592</v>
       </c>
@@ -8112,14 +8618,24 @@
       <c r="A19" s="6">
         <v>3</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="C19" s="6">
+        <v>33.698999999999998</v>
+      </c>
+      <c r="D19" s="6">
+        <v>29.898</v>
+      </c>
+      <c r="E19" s="6">
+        <v>28.782</v>
+      </c>
+      <c r="F19" s="6">
+        <v>27.135000000000002</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>579</v>
+      </c>
       <c r="H19" s="6" t="s">
         <v>592</v>
       </c>
@@ -8140,14 +8656,24 @@
       <c r="A20" s="6">
         <v>3</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="6">
+        <v>33.554000000000002</v>
+      </c>
+      <c r="D20" s="6">
+        <v>29.777000000000001</v>
+      </c>
+      <c r="E20" s="6">
+        <v>28.741</v>
+      </c>
+      <c r="F20" s="6">
+        <v>27.036000000000001</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>580</v>
+      </c>
       <c r="H20" s="6" t="s">
         <v>592</v>
       </c>
@@ -8165,13 +8691,28 @@
       <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12.692</v>
+      </c>
+      <c r="D21" s="6">
+        <v>13.827999999999999</v>
+      </c>
+      <c r="E21" s="6">
+        <v>14.669</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12.821</v>
+      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -8186,13 +8727,28 @@
       <c r="T21" s="6"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12.688000000000001</v>
+      </c>
+      <c r="D22" s="6">
+        <v>13.823</v>
+      </c>
+      <c r="E22" s="6">
+        <v>14.673999999999999</v>
+      </c>
+      <c r="F22" s="6">
+        <v>12.821</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -8207,13 +8763,28 @@
       <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="6">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7.6150000000000002</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7.21</v>
+      </c>
+      <c r="E23" s="6">
+        <v>8.0229999999999997</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7.1689999999999996</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -8228,13 +8799,28 @@
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C24" s="6">
+        <v>37.322000000000003</v>
+      </c>
+      <c r="D24" s="6">
+        <v>32.956000000000003</v>
+      </c>
+      <c r="E24" s="6">
+        <v>31.706</v>
+      </c>
+      <c r="F24" s="6">
+        <v>30.481000000000002</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -8249,13 +8835,28 @@
       <c r="T24" s="6"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C25" s="6">
+        <v>33.369</v>
+      </c>
+      <c r="D25" s="6">
+        <v>29.605</v>
+      </c>
+      <c r="E25" s="6">
+        <v>28.673999999999999</v>
+      </c>
+      <c r="F25" s="6">
+        <v>26.881</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -8270,13 +8871,28 @@
       <c r="T25" s="6"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="6">
+        <v>4</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C26" s="6">
+        <v>31.219000000000001</v>
+      </c>
+      <c r="D26" s="6">
+        <v>28.042999999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>27.181999999999999</v>
+      </c>
+      <c r="F26" s="6">
+        <v>25.056999999999999</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>592</v>
+      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -8369,6 +8985,30 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
